--- a/Test Execution/Nithya/Test Case- Lab Result.xlsx
+++ b/Test Execution/Nithya/Test Case- Lab Result.xlsx
@@ -2921,10 +2921,6 @@
     <t>Same as expected</t>
   </si>
   <si>
-    <t>From:4/06/2019
-To:27/06/2019</t>
-  </si>
-  <si>
     <t>Drop down with procedure list should be displayed and  Procedure should be added to the Table</t>
   </si>
   <si>
@@ -2987,6 +2983,10 @@
   </si>
   <si>
     <t xml:space="preserve">User should be able to enter data and Page should be displayed with "Sample Rejected Successfully" message </t>
+  </si>
+  <si>
+    <t>From:1/06/2019
+To:28/06/2019</t>
   </si>
 </sst>
 </file>
@@ -3174,12 +3174,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3188,6 +3182,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3496,7 +3496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3506,9 +3506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S1214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3568,14 +3568,14 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="R1" s="25" t="s">
+      <c r="P1" s="27"/>
+      <c r="R1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="25"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -3726,7 +3726,7 @@
         <v>873</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
@@ -4206,7 +4206,7 @@
         <v>54</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>873</v>
@@ -4438,7 +4438,7 @@
         <v>50</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>873</v>
@@ -4617,7 +4617,7 @@
         <v>54</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>873</v>
@@ -4658,7 +4658,7 @@
         <v>873</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="9"/>
@@ -4693,7 +4693,7 @@
         <v>873</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="9"/>
@@ -4703,7 +4703,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>66</v>
@@ -4898,7 +4898,7 @@
         <v>9</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>71</v>
@@ -5092,7 +5092,7 @@
         <v>54</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>873</v>
@@ -5133,7 +5133,7 @@
         <v>873</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K92" s="5"/>
       <c r="L92" s="9"/>
@@ -5168,7 +5168,7 @@
         <v>873</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K94" s="5"/>
       <c r="L94" s="9"/>
@@ -5401,7 +5401,7 @@
         <v>873</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="9"/>
@@ -5433,7 +5433,7 @@
         <v>873</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K110" s="5"/>
       <c r="L110" s="9"/>
@@ -5753,7 +5753,7 @@
         <v>97</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>861</v>
@@ -6031,7 +6031,7 @@
         <v>112</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>873</v>
@@ -6158,7 +6158,7 @@
         <v>112</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>873</v>
@@ -6302,7 +6302,7 @@
         <v>112</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>873</v>
@@ -6461,7 +6461,7 @@
         <v>112</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>873</v>
@@ -6620,7 +6620,7 @@
         <v>112</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H187" s="7" t="s">
         <v>873</v>
@@ -6731,7 +6731,7 @@
         <v>112</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H194" s="7" t="s">
         <v>873</v>
@@ -6842,7 +6842,7 @@
         <v>112</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H201" s="7" t="s">
         <v>873</v>
@@ -6970,7 +6970,7 @@
         <v>112</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>873</v>
@@ -7123,7 +7123,7 @@
         <v>112</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H219" s="7" t="s">
         <v>873</v>
@@ -7290,7 +7290,7 @@
         <v>112</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H230" s="7" t="s">
         <v>873</v>
@@ -7351,7 +7351,7 @@
         <v>7</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G234" s="7" t="s">
         <v>162</v>
@@ -7456,7 +7456,7 @@
         <v>112</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H241" s="7" t="s">
         <v>873</v>
@@ -7558,7 +7558,7 @@
         <v>873</v>
       </c>
       <c r="I247" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K247" s="5"/>
       <c r="L247" s="9"/>
@@ -7650,7 +7650,7 @@
         <v>112</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H253" s="7" t="s">
         <v>873</v>
@@ -7809,7 +7809,7 @@
         <v>112</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H263" s="7" t="s">
         <v>873</v>
@@ -7968,7 +7968,7 @@
         <v>112</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H273" s="7" t="s">
         <v>873</v>
@@ -8144,7 +8144,7 @@
         <v>112</v>
       </c>
       <c r="G284" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H284" s="7" t="s">
         <v>873</v>
@@ -8230,7 +8230,7 @@
         <v>873</v>
       </c>
       <c r="I289" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K289" s="5" t="s">
         <v>861</v>
@@ -8306,7 +8306,7 @@
         <v>112</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H294" s="7" t="s">
         <v>873</v>
@@ -8440,7 +8440,7 @@
         <v>873</v>
       </c>
       <c r="I302" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K302" s="5" t="s">
         <v>861</v>
@@ -8517,7 +8517,7 @@
         <v>112</v>
       </c>
       <c r="G307" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H307" s="7" t="s">
         <v>873</v>
@@ -8683,7 +8683,7 @@
         <v>873</v>
       </c>
       <c r="I317" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K317" s="5" t="s">
         <v>861</v>
@@ -8759,7 +8759,7 @@
         <v>112</v>
       </c>
       <c r="G322" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H322" s="7" t="s">
         <v>873</v>
@@ -8845,7 +8845,7 @@
         <v>873</v>
       </c>
       <c r="I327" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K327" s="5"/>
       <c r="L327" s="9"/>
@@ -8953,7 +8953,7 @@
         <v>112</v>
       </c>
       <c r="G334" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H334" s="7" t="s">
         <v>873</v>
@@ -9039,7 +9039,7 @@
         <v>873</v>
       </c>
       <c r="I339" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K339" s="5"/>
       <c r="L339" s="9"/>
@@ -9137,10 +9137,10 @@
       <c r="J345" s="5"/>
       <c r="K345" s="9"/>
       <c r="L345" s="9"/>
-      <c r="N345" s="26"/>
+      <c r="N345" s="24"/>
       <c r="O345" s="9"/>
       <c r="Q345" s="5"/>
-      <c r="R345" s="27"/>
+      <c r="R345" s="25"/>
     </row>
     <row r="346" spans="1:18" s="10" customFormat="1" ht="150">
       <c r="A346" s="7"/>
@@ -9163,10 +9163,10 @@
       <c r="J346" s="5"/>
       <c r="K346" s="9"/>
       <c r="L346" s="9"/>
-      <c r="N346" s="26"/>
+      <c r="N346" s="24"/>
       <c r="O346" s="9"/>
       <c r="Q346" s="5"/>
-      <c r="R346" s="27"/>
+      <c r="R346" s="25"/>
     </row>
     <row r="347" spans="1:18" ht="30">
       <c r="E347" s="7">
@@ -9183,8 +9183,8 @@
       </c>
       <c r="J347" s="5"/>
       <c r="K347" s="9"/>
-      <c r="Q347" s="28"/>
-      <c r="R347" s="27"/>
+      <c r="Q347" s="26"/>
+      <c r="R347" s="25"/>
     </row>
     <row r="348" spans="1:18" ht="120">
       <c r="E348" s="7">
@@ -9194,7 +9194,7 @@
         <v>112</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H348" s="7" t="s">
         <v>873</v>
@@ -9255,10 +9255,10 @@
       <c r="J351" s="5"/>
       <c r="K351" s="9"/>
       <c r="L351" s="9"/>
-      <c r="N351" s="26"/>
+      <c r="N351" s="24"/>
       <c r="O351" s="9"/>
       <c r="Q351" s="5"/>
-      <c r="R351" s="27"/>
+      <c r="R351" s="25"/>
     </row>
     <row r="352" spans="1:18" ht="44.25" customHeight="1">
       <c r="E352" s="7">
@@ -9290,7 +9290,7 @@
         <v>873</v>
       </c>
       <c r="I353" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K353" s="5"/>
       <c r="L353" s="9"/>
@@ -9332,10 +9332,10 @@
         <v>11</v>
       </c>
       <c r="F356" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="G356" s="7" t="s">
         <v>887</v>
-      </c>
-      <c r="G356" s="7" t="s">
-        <v>888</v>
       </c>
       <c r="H356" s="7" t="s">
         <v>873</v>

--- a/Test Execution/Nithya/Test Case- Lab Result.xlsx
+++ b/Test Execution/Nithya/Test Case- Lab Result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="893">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2996,6 +2996,9 @@
   </si>
   <si>
     <t>Click on Edit Item icon &gt;&gt;Press Enter</t>
+  </si>
+  <si>
+    <t>Poonima John</t>
   </si>
 </sst>
 </file>
@@ -3112,7 +3115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3191,6 +3194,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3505,7 +3511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3515,9 +3521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S1214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K139" sqref="K139"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I359" sqref="I359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3531,7 +3537,7 @@
     <col min="7" max="8" width="32" style="7" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" style="7" customWidth="1"/>
     <col min="10" max="10" width="15" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="7" customWidth="1"/>
     <col min="12" max="14" width="9.140625" style="6"/>
     <col min="15" max="15" width="13.140625" style="6" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="6"/>
@@ -3568,7 +3574,7 @@
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="27" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -3577,14 +3583,14 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="R1" s="28" t="s">
+      <c r="P1" s="28"/>
+      <c r="R1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="28"/>
+      <c r="S1" s="29"/>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -3609,7 +3615,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="8"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="O2" s="11" t="s">
@@ -3646,7 +3652,7 @@
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="O3" s="11" t="s">
@@ -3654,7 +3660,7 @@
       </c>
       <c r="P3" s="12">
         <f>COUNTA(L:L)-1</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>14</v>
@@ -3683,7 +3689,7 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="O4" s="11" t="s">
@@ -3695,7 +3701,7 @@
       </c>
       <c r="S4" s="14">
         <f>COUNTIF(L:L,"Blocked")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30">
@@ -3711,7 +3717,7 @@
       <c r="H5" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="9"/>
       <c r="R5" s="15" t="s">
         <v>17</v>
@@ -3737,7 +3743,7 @@
       <c r="I6" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="30">
@@ -3754,7 +3760,7 @@
       <c r="H7" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L7" s="9" t="s">
@@ -3763,7 +3769,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="19"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="132.75" customHeight="1">
@@ -3785,7 +3791,7 @@
       <c r="I9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="150">
@@ -3801,7 +3807,7 @@
       <c r="H10" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="105">
@@ -3817,7 +3823,7 @@
       <c r="H11" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="30">
@@ -3833,7 +3839,7 @@
       <c r="H12" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="121.5" customHeight="1">
@@ -3852,7 +3858,7 @@
       <c r="I13" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -3862,7 +3868,7 @@
     <row r="14" spans="1:19">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="90" customHeight="1">
@@ -3884,7 +3890,7 @@
       <c r="I15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:19" ht="150">
@@ -3900,7 +3906,7 @@
       <c r="H16" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="105">
@@ -3916,7 +3922,7 @@
       <c r="H17" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="30">
@@ -3932,7 +3938,7 @@
       <c r="H18" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="30">
@@ -3951,7 +3957,7 @@
       <c r="I19" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12">
@@ -3967,7 +3973,7 @@
       <c r="H20" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="45">
@@ -3983,7 +3989,7 @@
       <c r="H21" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="45">
@@ -3999,7 +4005,7 @@
       <c r="H22" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="30">
@@ -4015,7 +4021,7 @@
       <c r="H23" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="60">
@@ -4029,7 +4035,7 @@
       <c r="G24" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -4050,7 +4056,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="19"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="75">
@@ -4072,7 +4078,7 @@
       <c r="I27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="150">
@@ -4088,7 +4094,7 @@
       <c r="H28" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="105">
@@ -4104,7 +4110,7 @@
       <c r="H29" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="30">
@@ -4120,7 +4126,7 @@
       <c r="H30" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="30">
@@ -4139,7 +4145,7 @@
       <c r="I31" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12">
@@ -4156,7 +4162,7 @@
       <c r="H32" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="45">
@@ -4172,7 +4178,7 @@
       <c r="H33" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="45">
@@ -4188,7 +4194,7 @@
       <c r="H34" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="30">
@@ -4204,7 +4210,7 @@
       <c r="H35" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="75">
@@ -4223,7 +4229,7 @@
       <c r="I36" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12">
@@ -4242,7 +4248,7 @@
       <c r="I37" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="60">
@@ -4275,7 +4281,7 @@
       <c r="H39" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L39" s="9" t="s">
@@ -4284,7 +4290,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="19"/>
-      <c r="K40" s="5"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="75">
@@ -4306,7 +4312,7 @@
       <c r="I41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="150">
@@ -4322,7 +4328,7 @@
       <c r="H42" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="19"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="105">
@@ -4338,7 +4344,7 @@
       <c r="H43" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="30">
@@ -4354,7 +4360,7 @@
       <c r="H44" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="30">
@@ -4373,7 +4379,7 @@
       <c r="I45" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12">
@@ -4390,7 +4396,7 @@
       <c r="H46" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="19"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="45">
@@ -4407,7 +4413,7 @@
       <c r="H47" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="19"/>
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="45">
@@ -4423,7 +4429,7 @@
       <c r="H48" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="19"/>
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" ht="30">
@@ -4439,7 +4445,7 @@
       <c r="H49" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" ht="60">
@@ -4455,7 +4461,7 @@
       <c r="H50" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L50" s="9" t="s">
@@ -4464,7 +4470,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="19"/>
-      <c r="K51" s="5"/>
+      <c r="K51" s="19"/>
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" ht="75">
@@ -4486,7 +4492,7 @@
       <c r="I52" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="19"/>
       <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12" ht="150">
@@ -4502,7 +4508,7 @@
       <c r="H53" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="19"/>
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" ht="105">
@@ -4518,7 +4524,7 @@
       <c r="H54" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="K54" s="19"/>
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" ht="30">
@@ -4534,7 +4540,7 @@
       <c r="H55" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" ht="30">
@@ -4553,7 +4559,7 @@
       <c r="I56" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12">
@@ -4570,7 +4576,7 @@
       <c r="H57" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="19"/>
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" ht="45">
@@ -4586,7 +4592,7 @@
       <c r="H58" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="19"/>
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" ht="45">
@@ -4602,7 +4608,7 @@
       <c r="H59" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="19"/>
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" ht="30">
@@ -4618,7 +4624,7 @@
       <c r="H60" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" ht="75">
@@ -4637,7 +4643,7 @@
       <c r="I61" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="19"/>
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12">
@@ -4656,7 +4662,7 @@
       <c r="I62" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="19"/>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" ht="60">
@@ -4675,7 +4681,7 @@
       <c r="I63" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="19"/>
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12">
@@ -4691,7 +4697,7 @@
       <c r="H64" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="K64" s="19"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" ht="90">
@@ -4710,7 +4716,7 @@
       <c r="I65" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="19"/>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" ht="30">
@@ -4726,10 +4732,10 @@
       <c r="H66" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="19"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" ht="30">
       <c r="E67" s="7">
         <v>15</v>
       </c>
@@ -4742,7 +4748,7 @@
       <c r="H67" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L67" s="9" t="s">
@@ -4751,7 +4757,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="19"/>
-      <c r="K68" s="5"/>
+      <c r="K68" s="19"/>
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" ht="75">
@@ -4773,7 +4779,7 @@
       <c r="I69" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="19"/>
       <c r="L69" s="9"/>
     </row>
     <row r="70" spans="1:12" ht="150">
@@ -4789,7 +4795,7 @@
       <c r="H70" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="19"/>
       <c r="L70" s="9"/>
     </row>
     <row r="71" spans="1:12" ht="105">
@@ -4805,7 +4811,7 @@
       <c r="H71" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="19"/>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="1:12" ht="30">
@@ -4821,7 +4827,7 @@
       <c r="H72" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="19"/>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12" ht="30">
@@ -4840,7 +4846,7 @@
       <c r="I73" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="19"/>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12">
@@ -4857,7 +4863,7 @@
       <c r="H74" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="19"/>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" ht="45">
@@ -4873,7 +4879,7 @@
       <c r="H75" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="19"/>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" ht="45">
@@ -4889,7 +4895,7 @@
       <c r="H76" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="19"/>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12" ht="30">
@@ -4905,7 +4911,7 @@
       <c r="H77" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="19"/>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" ht="150">
@@ -4921,7 +4927,7 @@
       <c r="I78" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L78" s="9" t="s">
@@ -4942,7 +4948,7 @@
     <row r="80" spans="1:12">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
-      <c r="K80" s="5"/>
+      <c r="K80" s="19"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" ht="75">
@@ -4964,7 +4970,7 @@
       <c r="I81" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="19"/>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" ht="150">
@@ -4980,7 +4986,7 @@
       <c r="H82" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="19"/>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" ht="105">
@@ -4996,7 +5002,7 @@
       <c r="H83" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K83" s="5"/>
+      <c r="K83" s="19"/>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" ht="30">
@@ -5012,7 +5018,7 @@
       <c r="H84" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K84" s="5"/>
+      <c r="K84" s="19"/>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" ht="30">
@@ -5031,7 +5037,7 @@
       <c r="I85" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="K85" s="5"/>
+      <c r="K85" s="19"/>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12">
@@ -5048,7 +5054,7 @@
       <c r="H86" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K86" s="5"/>
+      <c r="K86" s="19"/>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" ht="45">
@@ -5064,7 +5070,7 @@
       <c r="H87" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K87" s="5"/>
+      <c r="K87" s="19"/>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="1:12" ht="45">
@@ -5080,7 +5086,7 @@
       <c r="H88" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K88" s="5"/>
+      <c r="K88" s="19"/>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="1:12" ht="30">
@@ -5096,7 +5102,7 @@
       <c r="H89" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K89" s="5"/>
+      <c r="K89" s="19"/>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="1:12" ht="75">
@@ -5115,7 +5121,7 @@
       <c r="I90" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="K90" s="5"/>
+      <c r="K90" s="19"/>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="1:12">
@@ -5134,7 +5140,7 @@
       <c r="I91" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="K91" s="5"/>
+      <c r="K91" s="19"/>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="1:12" ht="60">
@@ -5153,7 +5159,7 @@
       <c r="I92" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="K92" s="5"/>
+      <c r="K92" s="19"/>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="1:12">
@@ -5169,7 +5175,7 @@
       <c r="H93" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K93" s="5"/>
+      <c r="K93" s="19"/>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="1:12" ht="90">
@@ -5188,7 +5194,7 @@
       <c r="I94" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="K94" s="5"/>
+      <c r="K94" s="19"/>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" ht="30">
@@ -5204,7 +5210,7 @@
       <c r="H95" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K95" s="5" t="s">
+      <c r="K95" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L95" s="9" t="s">
@@ -5213,7 +5219,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="19"/>
-      <c r="K96" s="5"/>
+      <c r="K96" s="19"/>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" ht="75">
@@ -5235,7 +5241,7 @@
       <c r="I97" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K97" s="5"/>
+      <c r="K97" s="19"/>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" ht="150">
@@ -5251,7 +5257,7 @@
       <c r="H98" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="19"/>
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" ht="105">
@@ -5267,7 +5273,7 @@
       <c r="H99" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K99" s="5"/>
+      <c r="K99" s="19"/>
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" ht="30">
@@ -5283,7 +5289,7 @@
       <c r="H100" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K100" s="5"/>
+      <c r="K100" s="19"/>
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" ht="30">
@@ -5302,7 +5308,7 @@
       <c r="I101" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="K101" s="5"/>
+      <c r="K101" s="19"/>
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12">
@@ -5319,7 +5325,7 @@
       <c r="H102" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K102" s="5"/>
+      <c r="K102" s="19"/>
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" ht="45">
@@ -5335,7 +5341,7 @@
       <c r="H103" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K103" s="5"/>
+      <c r="K103" s="19"/>
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" ht="45">
@@ -5351,7 +5357,7 @@
       <c r="H104" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K104" s="5"/>
+      <c r="K104" s="19"/>
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" ht="30">
@@ -5367,7 +5373,7 @@
       <c r="H105" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K105" s="5"/>
+      <c r="K105" s="19"/>
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" ht="75">
@@ -5386,7 +5392,7 @@
       <c r="I106" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="K106" s="5"/>
+      <c r="K106" s="19"/>
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12">
@@ -5405,7 +5411,7 @@
       <c r="I107" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="K107" s="5"/>
+      <c r="K107" s="19"/>
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" ht="60">
@@ -5424,7 +5430,7 @@
       <c r="I108" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="K108" s="5"/>
+      <c r="K108" s="19"/>
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12">
@@ -5437,7 +5443,7 @@
       <c r="G109" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K109" s="5"/>
+      <c r="K109" s="19"/>
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" ht="90">
@@ -5456,7 +5462,7 @@
       <c r="I110" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="K110" s="5"/>
+      <c r="K110" s="19"/>
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:12" ht="45">
@@ -5469,7 +5475,7 @@
       <c r="G111" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K111" s="5" t="s">
+      <c r="K111" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L111" s="9" t="s">
@@ -5486,7 +5492,7 @@
       <c r="G112" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K112" s="5"/>
+      <c r="K112" s="19"/>
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" ht="30">
@@ -5501,12 +5507,12 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="K114" s="5"/>
+      <c r="K114" s="19"/>
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="19"/>
-      <c r="K115" s="5"/>
+      <c r="K115" s="19"/>
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" ht="75">
@@ -5528,7 +5534,7 @@
       <c r="I116" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K116" s="5"/>
+      <c r="K116" s="19"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="150">
@@ -5544,7 +5550,7 @@
       <c r="H117" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K117" s="5"/>
+      <c r="K117" s="19"/>
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" ht="105">
@@ -5560,7 +5566,7 @@
       <c r="H118" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K118" s="5"/>
+      <c r="K118" s="19"/>
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" ht="30">
@@ -5576,7 +5582,7 @@
       <c r="H119" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K119" s="5"/>
+      <c r="K119" s="19"/>
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" ht="30">
@@ -5595,7 +5601,7 @@
       <c r="I120" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="K120" s="5"/>
+      <c r="K120" s="19"/>
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12">
@@ -5612,7 +5618,7 @@
       <c r="H121" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K121" s="5"/>
+      <c r="K121" s="19"/>
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" ht="45">
@@ -5628,7 +5634,7 @@
       <c r="H122" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K122" s="5"/>
+      <c r="K122" s="19"/>
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" ht="45">
@@ -5644,7 +5650,7 @@
       <c r="H123" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K123" s="5"/>
+      <c r="K123" s="19"/>
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" ht="30">
@@ -5660,7 +5666,7 @@
       <c r="H124" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K124" s="5"/>
+      <c r="K124" s="19"/>
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:12" ht="60">
@@ -5673,7 +5679,7 @@
       <c r="G125" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K125" s="5" t="s">
+      <c r="K125" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L125" s="9" t="s">
@@ -5690,7 +5696,7 @@
       <c r="G126" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K126" s="5"/>
+      <c r="K126" s="19"/>
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:12" ht="30">
@@ -5706,7 +5712,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="19"/>
-      <c r="K128" s="5"/>
+      <c r="K128" s="19"/>
       <c r="L128" s="9"/>
     </row>
     <row r="129" spans="1:12" ht="120">
@@ -5728,7 +5734,7 @@
       <c r="I129" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K129" s="5"/>
+      <c r="K129" s="19"/>
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" ht="150">
@@ -5744,7 +5750,7 @@
       <c r="H130" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K130" s="5"/>
+      <c r="K130" s="19"/>
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" ht="30">
@@ -5760,7 +5766,7 @@
       <c r="H131" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K131" s="5"/>
+      <c r="K131" s="19"/>
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" ht="120">
@@ -5776,7 +5782,7 @@
       <c r="I132" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="K132" s="5" t="s">
+      <c r="K132" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L132" s="9" t="s">
@@ -5797,7 +5803,7 @@
     <row r="134" spans="1:12">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
-      <c r="K134" s="5"/>
+      <c r="K134" s="19"/>
       <c r="L134" s="9"/>
     </row>
     <row r="135" spans="1:12" ht="120">
@@ -5819,7 +5825,7 @@
       <c r="I135" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K135" s="5"/>
+      <c r="K135" s="19"/>
       <c r="L135" s="9"/>
     </row>
     <row r="136" spans="1:12" ht="150">
@@ -5835,7 +5841,7 @@
       <c r="H136" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K136" s="5"/>
+      <c r="K136" s="19"/>
       <c r="L136" s="9"/>
     </row>
     <row r="137" spans="1:12" ht="30">
@@ -5851,7 +5857,7 @@
       <c r="H137" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K137" s="5"/>
+      <c r="K137" s="19"/>
       <c r="L137" s="9"/>
     </row>
     <row r="138" spans="1:12" ht="30">
@@ -5867,7 +5873,7 @@
       <c r="H138" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K138" s="5"/>
+      <c r="K138" s="19"/>
       <c r="L138" s="9"/>
     </row>
     <row r="139" spans="1:12" ht="45">
@@ -5883,7 +5889,7 @@
       <c r="H139" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K139" s="5" t="s">
+      <c r="K139" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L139" s="9" t="s">
@@ -5892,7 +5898,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="19"/>
-      <c r="K140" s="5"/>
+      <c r="K140" s="19"/>
       <c r="L140" s="9"/>
     </row>
     <row r="141" spans="1:12" ht="165">
@@ -5914,7 +5920,7 @@
       <c r="I141" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K141" s="5"/>
+      <c r="K141" s="19"/>
       <c r="L141" s="9"/>
     </row>
     <row r="142" spans="1:12" ht="150">
@@ -5930,7 +5936,7 @@
       <c r="H142" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K142" s="5"/>
+      <c r="K142" s="19"/>
       <c r="L142" s="9"/>
     </row>
     <row r="143" spans="1:12" ht="30">
@@ -5946,7 +5952,7 @@
       <c r="H143" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K143" s="5"/>
+      <c r="K143" s="19"/>
       <c r="L143" s="9"/>
     </row>
     <row r="144" spans="1:12" ht="135">
@@ -5962,7 +5968,7 @@
       <c r="H144" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K144" s="5"/>
+      <c r="K144" s="19"/>
       <c r="L144" s="9"/>
     </row>
     <row r="145" spans="1:12" ht="30">
@@ -5978,7 +5984,7 @@
       <c r="H145" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K145" s="5" t="s">
+      <c r="K145" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L145" s="9" t="s">
@@ -5987,7 +5993,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="19"/>
-      <c r="K146" s="5"/>
+      <c r="K146" s="19"/>
       <c r="L146" s="9"/>
     </row>
     <row r="147" spans="1:12" ht="120">
@@ -6009,7 +6015,7 @@
       <c r="I147" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K147" s="5"/>
+      <c r="K147" s="19"/>
       <c r="L147" s="9"/>
     </row>
     <row r="148" spans="1:12" ht="150">
@@ -6025,7 +6031,7 @@
       <c r="H148" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K148" s="5"/>
+      <c r="K148" s="19"/>
       <c r="L148" s="9"/>
     </row>
     <row r="149" spans="1:12" ht="30">
@@ -6041,7 +6047,7 @@
       <c r="H149" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K149" s="5"/>
+      <c r="K149" s="19"/>
       <c r="L149" s="9"/>
     </row>
     <row r="150" spans="1:12" ht="120">
@@ -6057,7 +6063,7 @@
       <c r="H150" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K150" s="5"/>
+      <c r="K150" s="19"/>
       <c r="L150" s="9"/>
     </row>
     <row r="151" spans="1:12" ht="30">
@@ -6073,7 +6079,7 @@
       <c r="H151" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K151" s="5"/>
+      <c r="K151" s="19"/>
       <c r="L151" s="9"/>
     </row>
     <row r="152" spans="1:12" ht="75">
@@ -6089,10 +6095,10 @@
       <c r="H152" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K152" s="5"/>
+      <c r="K152" s="19"/>
       <c r="L152" s="9"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" ht="30">
       <c r="E153" s="7">
         <v>6</v>
       </c>
@@ -6105,7 +6111,7 @@
       <c r="H153" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K153" s="5" t="s">
+      <c r="K153" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L153" s="9" t="s">
@@ -6114,7 +6120,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="19"/>
-      <c r="K154" s="5"/>
+      <c r="K154" s="19"/>
       <c r="L154" s="9"/>
     </row>
     <row r="155" spans="1:12" ht="120">
@@ -6136,7 +6142,7 @@
       <c r="I155" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="5"/>
+      <c r="K155" s="19"/>
       <c r="L155" s="9"/>
     </row>
     <row r="156" spans="1:12" ht="150">
@@ -6152,7 +6158,7 @@
       <c r="H156" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K156" s="5"/>
+      <c r="K156" s="19"/>
       <c r="L156" s="9"/>
     </row>
     <row r="157" spans="1:12" ht="30">
@@ -6168,7 +6174,7 @@
       <c r="H157" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K157" s="5"/>
+      <c r="K157" s="19"/>
       <c r="L157" s="9"/>
     </row>
     <row r="158" spans="1:12" ht="120">
@@ -6184,7 +6190,7 @@
       <c r="H158" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K158" s="5"/>
+      <c r="K158" s="19"/>
       <c r="L158" s="9"/>
     </row>
     <row r="159" spans="1:12" ht="30">
@@ -6200,7 +6206,7 @@
       <c r="H159" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K159" s="5"/>
+      <c r="K159" s="19"/>
       <c r="L159" s="9"/>
     </row>
     <row r="160" spans="1:12" ht="60">
@@ -6216,7 +6222,7 @@
       <c r="H160" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K160" s="5"/>
+      <c r="K160" s="19"/>
       <c r="L160" s="9"/>
     </row>
     <row r="161" spans="1:12" ht="30">
@@ -6232,10 +6238,10 @@
       <c r="H161" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K161" s="5"/>
+      <c r="K161" s="19"/>
       <c r="L161" s="9"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" ht="30">
       <c r="E162" s="7">
         <v>7</v>
       </c>
@@ -6248,7 +6254,7 @@
       <c r="H162" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K162" s="5" t="s">
+      <c r="K162" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L162" s="9" t="s">
@@ -6258,7 +6264,7 @@
     <row r="163" spans="1:12">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
-      <c r="K163" s="5"/>
+      <c r="K163" s="19"/>
       <c r="L163" s="9"/>
     </row>
     <row r="164" spans="1:12" ht="120">
@@ -6280,7 +6286,7 @@
       <c r="I164" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K164" s="5"/>
+      <c r="K164" s="19"/>
       <c r="L164" s="9"/>
     </row>
     <row r="165" spans="1:12" ht="150">
@@ -6296,7 +6302,7 @@
       <c r="H165" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K165" s="5"/>
+      <c r="K165" s="19"/>
       <c r="L165" s="9"/>
     </row>
     <row r="166" spans="1:12" ht="30">
@@ -6312,7 +6318,7 @@
       <c r="H166" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K166" s="5"/>
+      <c r="K166" s="19"/>
       <c r="L166" s="9"/>
     </row>
     <row r="167" spans="1:12" ht="120">
@@ -6328,7 +6334,7 @@
       <c r="H167" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K167" s="5"/>
+      <c r="K167" s="19"/>
       <c r="L167" s="9"/>
     </row>
     <row r="168" spans="1:12" ht="30">
@@ -6344,7 +6350,7 @@
       <c r="H168" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K168" s="5"/>
+      <c r="K168" s="19"/>
       <c r="L168" s="9"/>
     </row>
     <row r="169" spans="1:12" ht="60">
@@ -6360,7 +6366,7 @@
       <c r="H169" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K169" s="5"/>
+      <c r="K169" s="19"/>
       <c r="L169" s="9"/>
     </row>
     <row r="170" spans="1:12" ht="30">
@@ -6376,7 +6382,7 @@
       <c r="H170" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K170" s="5"/>
+      <c r="K170" s="19"/>
       <c r="L170" s="9"/>
     </row>
     <row r="171" spans="1:12">
@@ -6392,7 +6398,7 @@
       <c r="H171" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K171" s="5"/>
+      <c r="K171" s="19"/>
       <c r="L171" s="9"/>
     </row>
     <row r="172" spans="1:12" ht="30">
@@ -6408,7 +6414,7 @@
       <c r="H172" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K172" s="5" t="s">
+      <c r="K172" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L172" s="9" t="s">
@@ -6417,7 +6423,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="19"/>
-      <c r="K173" s="5"/>
+      <c r="K173" s="19"/>
       <c r="L173" s="9"/>
     </row>
     <row r="174" spans="1:12" ht="120">
@@ -6439,7 +6445,7 @@
       <c r="I174" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K174" s="5"/>
+      <c r="K174" s="19"/>
       <c r="L174" s="9"/>
     </row>
     <row r="175" spans="1:12" ht="150">
@@ -6455,7 +6461,7 @@
       <c r="H175" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K175" s="5"/>
+      <c r="K175" s="19"/>
       <c r="L175" s="9"/>
     </row>
     <row r="176" spans="1:12" ht="30">
@@ -6471,7 +6477,7 @@
       <c r="H176" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K176" s="5"/>
+      <c r="K176" s="19"/>
       <c r="L176" s="9"/>
     </row>
     <row r="177" spans="1:12" ht="120">
@@ -6487,7 +6493,7 @@
       <c r="H177" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K177" s="5"/>
+      <c r="K177" s="19"/>
       <c r="L177" s="9"/>
     </row>
     <row r="178" spans="1:12" ht="30">
@@ -6503,7 +6509,7 @@
       <c r="H178" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K178" s="5"/>
+      <c r="K178" s="19"/>
       <c r="L178" s="9"/>
     </row>
     <row r="179" spans="1:12" ht="60">
@@ -6519,7 +6525,7 @@
       <c r="H179" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K179" s="5"/>
+      <c r="K179" s="19"/>
       <c r="L179" s="9"/>
     </row>
     <row r="180" spans="1:12" ht="30">
@@ -6535,7 +6541,7 @@
       <c r="H180" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K180" s="5"/>
+      <c r="K180" s="19"/>
       <c r="L180" s="9"/>
     </row>
     <row r="181" spans="1:12">
@@ -6551,7 +6557,7 @@
       <c r="H181" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K181" s="5"/>
+      <c r="K181" s="19"/>
       <c r="L181" s="9"/>
     </row>
     <row r="182" spans="1:12" ht="45">
@@ -6567,7 +6573,7 @@
       <c r="H182" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K182" s="5" t="s">
+      <c r="K182" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L182" s="9" t="s">
@@ -6576,7 +6582,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="19"/>
-      <c r="K183" s="5"/>
+      <c r="K183" s="19"/>
       <c r="L183" s="9"/>
     </row>
     <row r="184" spans="1:12" ht="120">
@@ -6598,7 +6604,7 @@
       <c r="I184" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K184" s="5"/>
+      <c r="K184" s="19"/>
       <c r="L184" s="9"/>
     </row>
     <row r="185" spans="1:12" ht="150">
@@ -6614,7 +6620,7 @@
       <c r="H185" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K185" s="5"/>
+      <c r="K185" s="19"/>
       <c r="L185" s="9"/>
     </row>
     <row r="186" spans="1:12" ht="30">
@@ -6630,7 +6636,7 @@
       <c r="H186" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K186" s="5"/>
+      <c r="K186" s="19"/>
       <c r="L186" s="9"/>
     </row>
     <row r="187" spans="1:12" ht="120">
@@ -6646,7 +6652,7 @@
       <c r="H187" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K187" s="5"/>
+      <c r="K187" s="19"/>
       <c r="L187" s="9"/>
     </row>
     <row r="188" spans="1:12" ht="45">
@@ -6662,7 +6668,7 @@
       <c r="H188" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K188" s="5"/>
+      <c r="K188" s="19"/>
       <c r="L188" s="9"/>
     </row>
     <row r="189" spans="1:12" ht="45">
@@ -6678,7 +6684,7 @@
       <c r="H189" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K189" s="5" t="s">
+      <c r="K189" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L189" s="9" t="s">
@@ -6687,7 +6693,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="19"/>
-      <c r="K190" s="5"/>
+      <c r="K190" s="19"/>
       <c r="L190" s="9"/>
     </row>
     <row r="191" spans="1:12" ht="120">
@@ -6709,7 +6715,7 @@
       <c r="I191" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K191" s="5"/>
+      <c r="K191" s="19"/>
       <c r="L191" s="9"/>
     </row>
     <row r="192" spans="1:12" ht="150">
@@ -6725,7 +6731,7 @@
       <c r="H192" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K192" s="5"/>
+      <c r="K192" s="19"/>
       <c r="L192" s="9"/>
     </row>
     <row r="193" spans="1:12" ht="30">
@@ -6741,7 +6747,7 @@
       <c r="H193" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K193" s="5"/>
+      <c r="K193" s="19"/>
       <c r="L193" s="9"/>
     </row>
     <row r="194" spans="1:12" ht="120">
@@ -6757,7 +6763,7 @@
       <c r="H194" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K194" s="5"/>
+      <c r="K194" s="19"/>
       <c r="L194" s="9"/>
     </row>
     <row r="195" spans="1:12" ht="30">
@@ -6773,7 +6779,7 @@
       <c r="H195" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K195" s="5"/>
+      <c r="K195" s="19"/>
       <c r="L195" s="9"/>
     </row>
     <row r="196" spans="1:12" ht="45">
@@ -6789,7 +6795,7 @@
       <c r="H196" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K196" s="5" t="s">
+      <c r="K196" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L196" s="9" t="s">
@@ -6798,7 +6804,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="19"/>
-      <c r="K197" s="5"/>
+      <c r="K197" s="19"/>
       <c r="L197" s="9"/>
     </row>
     <row r="198" spans="1:12" ht="120">
@@ -6820,7 +6826,7 @@
       <c r="I198" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K198" s="5"/>
+      <c r="K198" s="19"/>
       <c r="L198" s="9"/>
     </row>
     <row r="199" spans="1:12" ht="150">
@@ -6836,7 +6842,7 @@
       <c r="H199" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K199" s="5"/>
+      <c r="K199" s="19"/>
       <c r="L199" s="9"/>
     </row>
     <row r="200" spans="1:12" ht="30">
@@ -6852,7 +6858,7 @@
       <c r="H200" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K200" s="5"/>
+      <c r="K200" s="19"/>
       <c r="L200" s="9"/>
     </row>
     <row r="201" spans="1:12" ht="120">
@@ -6868,7 +6874,7 @@
       <c r="H201" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K201" s="5"/>
+      <c r="K201" s="19"/>
       <c r="L201" s="9"/>
     </row>
     <row r="202" spans="1:12" ht="30">
@@ -6884,7 +6890,7 @@
       <c r="H202" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K202" s="5"/>
+      <c r="K202" s="19"/>
       <c r="L202" s="9"/>
     </row>
     <row r="203" spans="1:12">
@@ -6900,7 +6906,7 @@
       <c r="H203" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K203" s="5"/>
+      <c r="K203" s="19"/>
       <c r="L203" s="9"/>
     </row>
     <row r="204" spans="1:12" ht="45">
@@ -6916,7 +6922,7 @@
       <c r="H204" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K204" s="5" t="s">
+      <c r="K204" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L204" s="9" t="s">
@@ -6926,7 +6932,7 @@
     <row r="205" spans="1:12">
       <c r="A205" s="19"/>
       <c r="B205" s="19"/>
-      <c r="K205" s="5"/>
+      <c r="K205" s="19"/>
       <c r="L205" s="9"/>
     </row>
     <row r="206" spans="1:12" ht="120">
@@ -6948,7 +6954,7 @@
       <c r="I206" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K206" s="5"/>
+      <c r="K206" s="19"/>
       <c r="L206" s="9"/>
     </row>
     <row r="207" spans="1:12" ht="150">
@@ -6964,7 +6970,7 @@
       <c r="H207" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K207" s="5"/>
+      <c r="K207" s="19"/>
       <c r="L207" s="9"/>
     </row>
     <row r="208" spans="1:12" ht="30">
@@ -6980,7 +6986,7 @@
       <c r="H208" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K208" s="5"/>
+      <c r="K208" s="19"/>
       <c r="L208" s="9"/>
     </row>
     <row r="209" spans="1:12" ht="120">
@@ -6996,7 +7002,7 @@
       <c r="H209" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K209" s="5"/>
+      <c r="K209" s="19"/>
       <c r="L209" s="9"/>
     </row>
     <row r="210" spans="1:12" ht="30">
@@ -7012,7 +7018,7 @@
       <c r="H210" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K210" s="5"/>
+      <c r="K210" s="19"/>
       <c r="L210" s="9"/>
     </row>
     <row r="211" spans="1:12">
@@ -7028,7 +7034,7 @@
       <c r="H211" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K211" s="5"/>
+      <c r="K211" s="19"/>
       <c r="L211" s="9"/>
     </row>
     <row r="212" spans="1:12" ht="45">
@@ -7044,7 +7050,7 @@
       <c r="H212" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K212" s="5"/>
+      <c r="K212" s="19"/>
       <c r="L212" s="9"/>
     </row>
     <row r="213" spans="1:12" ht="45">
@@ -7057,7 +7063,7 @@
       <c r="G213" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K213" s="5" t="s">
+      <c r="K213" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L213" s="9" t="s">
@@ -7074,12 +7080,12 @@
       <c r="G214" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K214" s="5"/>
+      <c r="K214" s="19"/>
       <c r="L214" s="9"/>
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="19"/>
-      <c r="K215" s="5"/>
+      <c r="K215" s="19"/>
       <c r="L215" s="9"/>
     </row>
     <row r="216" spans="1:12" ht="120">
@@ -7101,7 +7107,7 @@
       <c r="I216" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K216" s="5"/>
+      <c r="K216" s="19"/>
       <c r="L216" s="9"/>
     </row>
     <row r="217" spans="1:12" ht="150">
@@ -7117,7 +7123,7 @@
       <c r="H217" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K217" s="5"/>
+      <c r="K217" s="19"/>
       <c r="L217" s="9"/>
     </row>
     <row r="218" spans="1:12" ht="30">
@@ -7133,7 +7139,7 @@
       <c r="H218" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K218" s="5"/>
+      <c r="K218" s="19"/>
       <c r="L218" s="9"/>
     </row>
     <row r="219" spans="1:12" ht="120">
@@ -7149,7 +7155,7 @@
       <c r="H219" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K219" s="5"/>
+      <c r="K219" s="19"/>
       <c r="L219" s="9"/>
     </row>
     <row r="220" spans="1:12" ht="30">
@@ -7165,7 +7171,7 @@
       <c r="H220" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K220" s="5"/>
+      <c r="K220" s="19"/>
       <c r="L220" s="9"/>
     </row>
     <row r="221" spans="1:12">
@@ -7178,7 +7184,7 @@
       <c r="G221" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K221" s="5"/>
+      <c r="K221" s="19"/>
       <c r="L221" s="9"/>
     </row>
     <row r="222" spans="1:12" ht="45">
@@ -7194,7 +7200,7 @@
       <c r="H222" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K222" s="5"/>
+      <c r="K222" s="19"/>
       <c r="L222" s="9"/>
     </row>
     <row r="223" spans="1:12" ht="60">
@@ -7210,7 +7216,7 @@
       <c r="H223" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K223" s="5"/>
+      <c r="K223" s="19"/>
       <c r="L223" s="9"/>
     </row>
     <row r="224" spans="1:12" ht="30">
@@ -7229,24 +7235,24 @@
       <c r="I224" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K224" s="5"/>
+      <c r="K224" s="19"/>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" ht="30">
       <c r="E225" s="7">
         <v>9</v>
       </c>
       <c r="F225" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K225" s="5" t="s">
+      <c r="K225" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L225" s="9"/>
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="19"/>
-      <c r="K226" s="5"/>
+      <c r="K226" s="19"/>
       <c r="L226" s="9"/>
     </row>
     <row r="227" spans="1:12" ht="120">
@@ -7268,7 +7274,7 @@
       <c r="I227" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K227" s="5"/>
+      <c r="K227" s="19"/>
       <c r="L227" s="9"/>
     </row>
     <row r="228" spans="1:12" ht="150">
@@ -7284,7 +7290,7 @@
       <c r="H228" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K228" s="5"/>
+      <c r="K228" s="19"/>
       <c r="L228" s="9"/>
     </row>
     <row r="229" spans="1:12" ht="30">
@@ -7300,7 +7306,7 @@
       <c r="H229" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K229" s="5"/>
+      <c r="K229" s="19"/>
       <c r="L229" s="9"/>
     </row>
     <row r="230" spans="1:12" ht="120">
@@ -7316,7 +7322,7 @@
       <c r="H230" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K230" s="5"/>
+      <c r="K230" s="19"/>
       <c r="L230" s="9"/>
     </row>
     <row r="231" spans="1:12" ht="30">
@@ -7332,7 +7338,7 @@
       <c r="H231" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K231" s="5"/>
+      <c r="K231" s="19"/>
       <c r="L231" s="9"/>
     </row>
     <row r="232" spans="1:12">
@@ -7348,7 +7354,7 @@
       <c r="H232" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K232" s="5"/>
+      <c r="K232" s="19"/>
       <c r="L232" s="9"/>
     </row>
     <row r="233" spans="1:12" ht="45">
@@ -7364,7 +7370,7 @@
       <c r="H233" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K233" s="5"/>
+      <c r="K233" s="19"/>
       <c r="L233" s="9"/>
     </row>
     <row r="234" spans="1:12" ht="45">
@@ -7383,7 +7389,7 @@
       <c r="I234" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K234" s="5"/>
+      <c r="K234" s="19"/>
       <c r="L234" s="9"/>
     </row>
     <row r="235" spans="1:12" ht="45">
@@ -7399,7 +7405,7 @@
       <c r="H235" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K235" s="5" t="s">
+      <c r="K235" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L235" s="9" t="s">
@@ -7408,7 +7414,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="19"/>
-      <c r="K236" s="5"/>
+      <c r="K236" s="19"/>
       <c r="L236" s="9"/>
     </row>
     <row r="237" spans="1:12" ht="120">
@@ -7430,7 +7436,7 @@
       <c r="I237" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K237" s="5"/>
+      <c r="K237" s="19"/>
       <c r="L237" s="9"/>
     </row>
     <row r="238" spans="1:12" ht="150">
@@ -7446,11 +7452,11 @@
       <c r="H238" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K238" s="5"/>
+      <c r="K238" s="19"/>
       <c r="L238" s="9"/>
     </row>
     <row r="239" spans="1:12">
-      <c r="K239" s="5"/>
+      <c r="K239" s="19"/>
       <c r="L239" s="9"/>
     </row>
     <row r="240" spans="1:12" ht="30">
@@ -7466,7 +7472,7 @@
       <c r="H240" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K240" s="5"/>
+      <c r="K240" s="19"/>
       <c r="L240" s="9"/>
     </row>
     <row r="241" spans="1:12" ht="120">
@@ -7482,7 +7488,7 @@
       <c r="H241" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K241" s="5"/>
+      <c r="K241" s="19"/>
       <c r="L241" s="9"/>
     </row>
     <row r="242" spans="1:12" ht="30">
@@ -7498,7 +7504,7 @@
       <c r="H242" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K242" s="5"/>
+      <c r="K242" s="19"/>
       <c r="L242" s="9"/>
     </row>
     <row r="243" spans="1:12">
@@ -7514,7 +7520,7 @@
       <c r="H243" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K243" s="5"/>
+      <c r="K243" s="19"/>
       <c r="L243" s="9"/>
     </row>
     <row r="244" spans="1:12" ht="75">
@@ -7530,7 +7536,7 @@
       <c r="H244" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K244" s="5"/>
+      <c r="K244" s="19"/>
       <c r="L244" s="9"/>
     </row>
     <row r="245" spans="1:12" ht="30">
@@ -7546,7 +7552,7 @@
       <c r="H245" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K245" s="5"/>
+      <c r="K245" s="19"/>
       <c r="L245" s="9"/>
     </row>
     <row r="246" spans="1:12" ht="60">
@@ -7562,7 +7568,7 @@
       <c r="H246" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K246" s="5"/>
+      <c r="K246" s="19"/>
       <c r="L246" s="9"/>
     </row>
     <row r="247" spans="1:12" ht="90">
@@ -7581,7 +7587,7 @@
       <c r="I247" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="K247" s="5"/>
+      <c r="K247" s="19"/>
       <c r="L247" s="9"/>
     </row>
     <row r="248" spans="1:12" ht="30">
@@ -7597,7 +7603,7 @@
       <c r="H248" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K248" s="5" t="s">
+      <c r="K248" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L248" s="9" t="s">
@@ -7606,7 +7612,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" s="19"/>
-      <c r="K249" s="5"/>
+      <c r="K249" s="19"/>
       <c r="L249" s="9"/>
     </row>
     <row r="250" spans="1:12" ht="120">
@@ -7628,7 +7634,7 @@
       <c r="I250" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K250" s="5"/>
+      <c r="K250" s="19"/>
       <c r="L250" s="9"/>
     </row>
     <row r="251" spans="1:12" ht="150">
@@ -7644,7 +7650,7 @@
       <c r="H251" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K251" s="5"/>
+      <c r="K251" s="19"/>
       <c r="L251" s="9"/>
     </row>
     <row r="252" spans="1:12" ht="30">
@@ -7660,7 +7666,7 @@
       <c r="H252" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K252" s="5"/>
+      <c r="K252" s="19"/>
       <c r="L252" s="9"/>
     </row>
     <row r="253" spans="1:12" ht="120">
@@ -7676,7 +7682,7 @@
       <c r="H253" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K253" s="5"/>
+      <c r="K253" s="19"/>
       <c r="L253" s="9"/>
     </row>
     <row r="254" spans="1:12" ht="30">
@@ -7692,7 +7698,7 @@
       <c r="H254" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K254" s="5"/>
+      <c r="K254" s="19"/>
       <c r="L254" s="9"/>
     </row>
     <row r="255" spans="1:12">
@@ -7708,7 +7714,7 @@
       <c r="H255" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K255" s="5"/>
+      <c r="K255" s="19"/>
       <c r="L255" s="9"/>
     </row>
     <row r="256" spans="1:12" ht="75">
@@ -7724,7 +7730,7 @@
       <c r="H256" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K256" s="5"/>
+      <c r="K256" s="19"/>
       <c r="L256" s="9"/>
     </row>
     <row r="257" spans="1:12" ht="45.75" customHeight="1">
@@ -7740,7 +7746,7 @@
       <c r="H257" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K257" s="5"/>
+      <c r="K257" s="19"/>
       <c r="L257" s="9"/>
     </row>
     <row r="258" spans="1:12" ht="60">
@@ -7756,7 +7762,7 @@
       <c r="H258" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K258" s="5" t="s">
+      <c r="K258" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L258" s="9" t="s">
@@ -7765,7 +7771,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="19"/>
-      <c r="K259" s="5"/>
+      <c r="K259" s="19"/>
       <c r="L259" s="9"/>
     </row>
     <row r="260" spans="1:12" ht="120">
@@ -7787,7 +7793,7 @@
       <c r="I260" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K260" s="5"/>
+      <c r="K260" s="19"/>
       <c r="L260" s="9"/>
     </row>
     <row r="261" spans="1:12" ht="150">
@@ -7803,7 +7809,7 @@
       <c r="H261" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K261" s="5"/>
+      <c r="K261" s="19"/>
       <c r="L261" s="9"/>
     </row>
     <row r="262" spans="1:12" ht="30">
@@ -7819,7 +7825,7 @@
       <c r="H262" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K262" s="5"/>
+      <c r="K262" s="19"/>
       <c r="L262" s="9"/>
     </row>
     <row r="263" spans="1:12" ht="120">
@@ -7835,7 +7841,7 @@
       <c r="H263" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K263" s="5"/>
+      <c r="K263" s="19"/>
       <c r="L263" s="9"/>
     </row>
     <row r="264" spans="1:12" ht="30">
@@ -7851,7 +7857,7 @@
       <c r="H264" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K264" s="5"/>
+      <c r="K264" s="19"/>
       <c r="L264" s="9"/>
     </row>
     <row r="265" spans="1:12">
@@ -7867,7 +7873,7 @@
       <c r="H265" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K265" s="5"/>
+      <c r="K265" s="19"/>
       <c r="L265" s="9"/>
     </row>
     <row r="266" spans="1:12" ht="75">
@@ -7883,7 +7889,7 @@
       <c r="H266" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K266" s="5"/>
+      <c r="K266" s="19"/>
       <c r="L266" s="9"/>
     </row>
     <row r="267" spans="1:12" ht="46.5" customHeight="1">
@@ -7899,7 +7905,7 @@
       <c r="H267" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K267" s="5"/>
+      <c r="K267" s="19"/>
       <c r="L267" s="9"/>
     </row>
     <row r="268" spans="1:12" ht="45">
@@ -7915,7 +7921,7 @@
       <c r="H268" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K268" s="5" t="s">
+      <c r="K268" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L268" s="9" t="s">
@@ -7924,7 +7930,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="19"/>
-      <c r="K269" s="5"/>
+      <c r="K269" s="19"/>
       <c r="L269" s="9"/>
     </row>
     <row r="270" spans="1:12" ht="120">
@@ -7946,7 +7952,7 @@
       <c r="I270" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K270" s="5"/>
+      <c r="K270" s="19"/>
       <c r="L270" s="9"/>
     </row>
     <row r="271" spans="1:12" ht="150">
@@ -7962,7 +7968,7 @@
       <c r="H271" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K271" s="5"/>
+      <c r="K271" s="19"/>
       <c r="L271" s="9"/>
     </row>
     <row r="272" spans="1:12" ht="30">
@@ -7978,7 +7984,7 @@
       <c r="H272" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K272" s="5"/>
+      <c r="K272" s="19"/>
       <c r="L272" s="9"/>
     </row>
     <row r="273" spans="1:12" ht="120">
@@ -7994,7 +8000,7 @@
       <c r="H273" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K273" s="5"/>
+      <c r="K273" s="19"/>
       <c r="L273" s="9"/>
     </row>
     <row r="274" spans="1:12" ht="30">
@@ -8010,7 +8016,7 @@
       <c r="H274" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K274" s="5"/>
+      <c r="K274" s="19"/>
       <c r="L274" s="9"/>
     </row>
     <row r="275" spans="1:12">
@@ -8026,7 +8032,7 @@
       <c r="H275" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K275" s="5"/>
+      <c r="K275" s="19"/>
       <c r="L275" s="9"/>
     </row>
     <row r="276" spans="1:12" ht="75">
@@ -8042,7 +8048,7 @@
       <c r="H276" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K276" s="5"/>
+      <c r="K276" s="19"/>
       <c r="L276" s="9"/>
     </row>
     <row r="277" spans="1:12" ht="57" customHeight="1">
@@ -8058,7 +8064,7 @@
       <c r="H277" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K277" s="5"/>
+      <c r="K277" s="19"/>
       <c r="L277" s="9"/>
     </row>
     <row r="278" spans="1:12" ht="30">
@@ -8074,7 +8080,7 @@
       <c r="H278" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K278" s="5"/>
+      <c r="K278" s="19"/>
       <c r="L278" s="9"/>
     </row>
     <row r="279" spans="1:12" ht="45">
@@ -8090,7 +8096,7 @@
       <c r="H279" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K279" s="5" t="s">
+      <c r="K279" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L279" s="9" t="s">
@@ -8100,7 +8106,7 @@
     <row r="280" spans="1:12">
       <c r="A280" s="19"/>
       <c r="B280" s="19"/>
-      <c r="K280" s="5"/>
+      <c r="K280" s="19"/>
       <c r="L280" s="9"/>
     </row>
     <row r="281" spans="1:12" ht="120">
@@ -8122,7 +8128,7 @@
       <c r="I281" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K281" s="5"/>
+      <c r="K281" s="19"/>
       <c r="L281" s="9"/>
     </row>
     <row r="282" spans="1:12" ht="150">
@@ -8138,7 +8144,7 @@
       <c r="H282" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K282" s="5"/>
+      <c r="K282" s="19"/>
       <c r="L282" s="9"/>
     </row>
     <row r="283" spans="1:12" ht="30">
@@ -8154,7 +8160,7 @@
       <c r="H283" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K283" s="5"/>
+      <c r="K283" s="19"/>
       <c r="L283" s="9"/>
     </row>
     <row r="284" spans="1:12" ht="120">
@@ -8170,7 +8176,7 @@
       <c r="H284" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K284" s="5"/>
+      <c r="K284" s="19"/>
       <c r="L284" s="9"/>
     </row>
     <row r="285" spans="1:12" ht="30">
@@ -8186,7 +8192,7 @@
       <c r="H285" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K285" s="5"/>
+      <c r="K285" s="19"/>
       <c r="L285" s="9"/>
     </row>
     <row r="286" spans="1:12">
@@ -8202,7 +8208,7 @@
       <c r="H286" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K286" s="5"/>
+      <c r="K286" s="19"/>
       <c r="L286" s="9"/>
     </row>
     <row r="287" spans="1:12" ht="75">
@@ -8218,7 +8224,7 @@
       <c r="H287" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K287" s="5"/>
+      <c r="K287" s="19"/>
       <c r="L287" s="9"/>
     </row>
     <row r="288" spans="1:12" ht="52.5" customHeight="1">
@@ -8234,7 +8240,7 @@
       <c r="H288" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K288" s="5"/>
+      <c r="K288" s="19"/>
       <c r="L288" s="9"/>
     </row>
     <row r="289" spans="1:12" ht="135">
@@ -8253,7 +8259,7 @@
       <c r="I289" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="K289" s="5" t="s">
+      <c r="K289" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L289" s="9" t="s">
@@ -8262,7 +8268,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="19"/>
-      <c r="K290" s="5"/>
+      <c r="K290" s="19"/>
       <c r="L290" s="9"/>
     </row>
     <row r="291" spans="1:12" ht="120">
@@ -8284,7 +8290,7 @@
       <c r="I291" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K291" s="5"/>
+      <c r="K291" s="19"/>
       <c r="L291" s="9"/>
     </row>
     <row r="292" spans="1:12" ht="150">
@@ -8300,7 +8306,7 @@
       <c r="H292" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K292" s="5"/>
+      <c r="K292" s="19"/>
       <c r="L292" s="9"/>
     </row>
     <row r="293" spans="1:12" ht="30">
@@ -8316,7 +8322,7 @@
       <c r="H293" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K293" s="5"/>
+      <c r="K293" s="19"/>
       <c r="L293" s="9"/>
     </row>
     <row r="294" spans="1:12" ht="120">
@@ -8332,7 +8338,7 @@
       <c r="H294" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K294" s="5"/>
+      <c r="K294" s="19"/>
       <c r="L294" s="9"/>
     </row>
     <row r="295" spans="1:12" ht="30">
@@ -8348,7 +8354,7 @@
       <c r="H295" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K295" s="5"/>
+      <c r="K295" s="19"/>
       <c r="L295" s="9"/>
     </row>
     <row r="296" spans="1:12">
@@ -8364,7 +8370,7 @@
       <c r="H296" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K296" s="5"/>
+      <c r="K296" s="19"/>
       <c r="L296" s="9"/>
     </row>
     <row r="297" spans="1:12" ht="75">
@@ -8380,7 +8386,7 @@
       <c r="H297" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K297" s="5"/>
+      <c r="K297" s="19"/>
       <c r="L297" s="9"/>
     </row>
     <row r="298" spans="1:12" ht="51.75" customHeight="1">
@@ -8396,7 +8402,7 @@
       <c r="H298" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K298" s="5"/>
+      <c r="K298" s="19"/>
       <c r="L298" s="9"/>
     </row>
     <row r="299" spans="1:12" ht="90">
@@ -8412,7 +8418,7 @@
       <c r="H299" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K299" s="5"/>
+      <c r="K299" s="19"/>
       <c r="L299" s="9"/>
     </row>
     <row r="300" spans="1:12" ht="45">
@@ -8428,7 +8434,7 @@
       <c r="H300" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K300" s="5"/>
+      <c r="K300" s="19"/>
       <c r="L300" s="9"/>
     </row>
     <row r="301" spans="1:12" ht="30">
@@ -8444,7 +8450,7 @@
       <c r="H301" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K301" s="5"/>
+      <c r="K301" s="19"/>
       <c r="L301" s="9"/>
     </row>
     <row r="302" spans="1:12" ht="105">
@@ -8463,7 +8469,7 @@
       <c r="I302" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="K302" s="5" t="s">
+      <c r="K302" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L302" s="9" t="s">
@@ -8473,7 +8479,7 @@
     <row r="303" spans="1:12">
       <c r="A303" s="19"/>
       <c r="B303" s="19"/>
-      <c r="K303" s="5"/>
+      <c r="K303" s="19"/>
       <c r="L303" s="9"/>
     </row>
     <row r="304" spans="1:12" ht="120">
@@ -8495,7 +8501,7 @@
       <c r="I304" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K304" s="5"/>
+      <c r="K304" s="19"/>
       <c r="L304" s="9"/>
     </row>
     <row r="305" spans="1:12" ht="150">
@@ -8511,7 +8517,7 @@
       <c r="H305" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K305" s="5"/>
+      <c r="K305" s="19"/>
       <c r="L305" s="9"/>
     </row>
     <row r="306" spans="1:12" ht="30">
@@ -8527,7 +8533,7 @@
       <c r="H306" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K306" s="5"/>
+      <c r="K306" s="19"/>
       <c r="L306" s="9"/>
     </row>
     <row r="307" spans="1:12" ht="120">
@@ -8543,7 +8549,7 @@
       <c r="H307" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K307" s="5"/>
+      <c r="K307" s="19"/>
       <c r="L307" s="9"/>
     </row>
     <row r="308" spans="1:12" ht="30">
@@ -8559,7 +8565,7 @@
       <c r="H308" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K308" s="5"/>
+      <c r="K308" s="19"/>
       <c r="L308" s="9"/>
     </row>
     <row r="309" spans="1:12">
@@ -8575,7 +8581,7 @@
       <c r="H309" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K309" s="5"/>
+      <c r="K309" s="19"/>
       <c r="L309" s="9"/>
     </row>
     <row r="310" spans="1:12" ht="75">
@@ -8591,7 +8597,7 @@
       <c r="H310" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K310" s="5"/>
+      <c r="K310" s="19"/>
       <c r="L310" s="9"/>
     </row>
     <row r="311" spans="1:12" ht="45.75" customHeight="1">
@@ -8607,7 +8613,7 @@
       <c r="H311" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K311" s="5"/>
+      <c r="K311" s="19"/>
       <c r="L311" s="9"/>
     </row>
     <row r="312" spans="1:12" ht="90">
@@ -8623,7 +8629,7 @@
       <c r="H312" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K312" s="5"/>
+      <c r="K312" s="19"/>
       <c r="L312" s="9"/>
     </row>
     <row r="313" spans="1:12" ht="30">
@@ -8639,7 +8645,7 @@
       <c r="H313" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K313" s="5"/>
+      <c r="K313" s="19"/>
       <c r="L313" s="9"/>
     </row>
     <row r="314" spans="1:12" ht="45">
@@ -8655,7 +8661,7 @@
       <c r="H314" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K314" s="5"/>
+      <c r="K314" s="19"/>
       <c r="L314" s="9"/>
     </row>
     <row r="315" spans="1:12" ht="45">
@@ -8671,7 +8677,7 @@
       <c r="H315" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K315" s="5"/>
+      <c r="K315" s="19"/>
       <c r="L315" s="9"/>
     </row>
     <row r="316" spans="1:12" ht="30">
@@ -8687,7 +8693,7 @@
       <c r="H316" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K316" s="5"/>
+      <c r="K316" s="19"/>
       <c r="L316" s="9"/>
     </row>
     <row r="317" spans="1:12" ht="105">
@@ -8706,7 +8712,7 @@
       <c r="I317" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="K317" s="5" t="s">
+      <c r="K317" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L317" s="9" t="s">
@@ -8715,7 +8721,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="19"/>
-      <c r="K318" s="5"/>
+      <c r="K318" s="19"/>
       <c r="L318" s="9"/>
     </row>
     <row r="319" spans="1:12" ht="120">
@@ -8737,7 +8743,7 @@
       <c r="I319" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K319" s="5"/>
+      <c r="K319" s="19"/>
       <c r="L319" s="9"/>
     </row>
     <row r="320" spans="1:12" ht="150">
@@ -8753,7 +8759,7 @@
       <c r="H320" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K320" s="5"/>
+      <c r="K320" s="19"/>
       <c r="L320" s="9"/>
     </row>
     <row r="321" spans="1:12" ht="30">
@@ -8769,7 +8775,7 @@
       <c r="H321" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K321" s="5"/>
+      <c r="K321" s="19"/>
       <c r="L321" s="9"/>
     </row>
     <row r="322" spans="1:12" ht="120">
@@ -8785,7 +8791,7 @@
       <c r="H322" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K322" s="5"/>
+      <c r="K322" s="19"/>
       <c r="L322" s="9"/>
     </row>
     <row r="323" spans="1:12" ht="30">
@@ -8801,7 +8807,7 @@
       <c r="H323" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K323" s="5"/>
+      <c r="K323" s="19"/>
       <c r="L323" s="9"/>
     </row>
     <row r="324" spans="1:12">
@@ -8817,7 +8823,7 @@
       <c r="H324" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K324" s="5"/>
+      <c r="K324" s="19"/>
       <c r="L324" s="9"/>
     </row>
     <row r="325" spans="1:12" ht="75">
@@ -8833,7 +8839,7 @@
       <c r="H325" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K325" s="5"/>
+      <c r="K325" s="19"/>
       <c r="L325" s="9"/>
     </row>
     <row r="326" spans="1:12" ht="62.25" customHeight="1">
@@ -8849,7 +8855,7 @@
       <c r="H326" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K326" s="5"/>
+      <c r="K326" s="19"/>
       <c r="L326" s="9"/>
     </row>
     <row r="327" spans="1:12" ht="135">
@@ -8868,7 +8874,7 @@
       <c r="I327" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="K327" s="5"/>
+      <c r="K327" s="19"/>
       <c r="L327" s="9"/>
     </row>
     <row r="328" spans="1:12">
@@ -8884,7 +8890,7 @@
       <c r="H328" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K328" s="5"/>
+      <c r="K328" s="19"/>
       <c r="L328" s="9"/>
     </row>
     <row r="329" spans="1:12" ht="45">
@@ -8900,7 +8906,7 @@
       <c r="H329" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K329" s="5" t="s">
+      <c r="K329" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L329" s="9" t="s">
@@ -8909,7 +8915,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="19"/>
-      <c r="K330" s="5"/>
+      <c r="K330" s="19"/>
       <c r="L330" s="9"/>
     </row>
     <row r="331" spans="1:12" ht="120">
@@ -8931,7 +8937,7 @@
       <c r="I331" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K331" s="5"/>
+      <c r="K331" s="19"/>
       <c r="L331" s="9"/>
     </row>
     <row r="332" spans="1:12" ht="150">
@@ -8947,7 +8953,7 @@
       <c r="H332" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K332" s="5"/>
+      <c r="K332" s="19"/>
       <c r="L332" s="9"/>
     </row>
     <row r="333" spans="1:12" ht="30">
@@ -8963,7 +8969,7 @@
       <c r="H333" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K333" s="5"/>
+      <c r="K333" s="19"/>
       <c r="L333" s="9"/>
     </row>
     <row r="334" spans="1:12" ht="120">
@@ -8979,7 +8985,7 @@
       <c r="H334" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K334" s="5"/>
+      <c r="K334" s="19"/>
       <c r="L334" s="9"/>
     </row>
     <row r="335" spans="1:12" ht="30">
@@ -8995,7 +9001,7 @@
       <c r="H335" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K335" s="5"/>
+      <c r="K335" s="19"/>
       <c r="L335" s="9"/>
     </row>
     <row r="336" spans="1:12">
@@ -9011,7 +9017,7 @@
       <c r="H336" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K336" s="5"/>
+      <c r="K336" s="19"/>
       <c r="L336" s="9"/>
     </row>
     <row r="337" spans="1:18" ht="75">
@@ -9027,7 +9033,7 @@
       <c r="H337" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K337" s="5"/>
+      <c r="K337" s="19"/>
       <c r="L337" s="9"/>
     </row>
     <row r="338" spans="1:18" ht="48.75" customHeight="1">
@@ -9043,7 +9049,7 @@
       <c r="H338" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K338" s="5"/>
+      <c r="K338" s="19"/>
       <c r="L338" s="9"/>
     </row>
     <row r="339" spans="1:18" ht="135">
@@ -9062,7 +9068,7 @@
       <c r="I339" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="K339" s="5"/>
+      <c r="K339" s="19"/>
       <c r="L339" s="9"/>
     </row>
     <row r="340" spans="1:18">
@@ -9078,7 +9084,7 @@
       <c r="H340" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K340" s="5"/>
+      <c r="K340" s="19"/>
       <c r="L340" s="9"/>
     </row>
     <row r="341" spans="1:18" ht="60">
@@ -9094,7 +9100,7 @@
       <c r="H341" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K341" s="5"/>
+      <c r="K341" s="19"/>
       <c r="L341" s="9"/>
     </row>
     <row r="342" spans="1:18" ht="30">
@@ -9113,7 +9119,7 @@
       <c r="I342" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K342" s="5"/>
+      <c r="K342" s="19"/>
       <c r="L342" s="9"/>
     </row>
     <row r="343" spans="1:18">
@@ -9123,7 +9129,7 @@
       <c r="F343" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K343" s="5"/>
+      <c r="K343" s="19"/>
       <c r="L343" s="9"/>
     </row>
     <row r="344" spans="1:18">
@@ -9294,7 +9300,7 @@
       <c r="H352" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K352" s="5"/>
+      <c r="K352" s="19"/>
       <c r="L352" s="9"/>
     </row>
     <row r="353" spans="1:12" ht="135">
@@ -9313,7 +9319,7 @@
       <c r="I353" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="K353" s="5"/>
+      <c r="K353" s="19"/>
       <c r="L353" s="9"/>
     </row>
     <row r="354" spans="1:12">
@@ -9329,7 +9335,7 @@
       <c r="H354" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K354" s="5"/>
+      <c r="K354" s="19"/>
       <c r="L354" s="9"/>
     </row>
     <row r="355" spans="1:12" ht="30">
@@ -9345,7 +9351,7 @@
       <c r="H355" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="K355" s="5"/>
+      <c r="K355" s="19"/>
       <c r="L355" s="9"/>
     </row>
     <row r="356" spans="1:12" ht="60">
@@ -9364,7 +9370,7 @@
       <c r="I356" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K356" s="5" t="s">
+      <c r="K356" s="19" t="s">
         <v>857</v>
       </c>
       <c r="L356" s="9" t="s">
@@ -9373,7 +9379,7 @@
     </row>
     <row r="357" spans="1:12">
       <c r="A357" s="19"/>
-      <c r="K357" s="5"/>
+      <c r="K357" s="19"/>
       <c r="L357" s="9"/>
     </row>
     <row r="358" spans="1:12" ht="120">
@@ -9395,8 +9401,12 @@
       <c r="I358" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K358" s="5"/>
-      <c r="L358" s="9"/>
+      <c r="K358" s="19" t="s">
+        <v>892</v>
+      </c>
+      <c r="L358" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="359" spans="1:12" ht="150">
       <c r="E359" s="7">
@@ -9408,10 +9418,7 @@
       <c r="G359" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H359" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="K359" s="5"/>
+      <c r="K359" s="19"/>
       <c r="L359" s="9"/>
     </row>
     <row r="360" spans="1:12" ht="30">
@@ -9424,7 +9431,7 @@
       <c r="G360" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K360" s="5"/>
+      <c r="K360" s="19"/>
       <c r="L360" s="9"/>
     </row>
     <row r="361" spans="1:12" ht="90">
@@ -9437,7 +9444,7 @@
       <c r="G361" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K361" s="5"/>
+      <c r="K361" s="19"/>
       <c r="L361" s="9"/>
     </row>
     <row r="362" spans="1:12" ht="30">
@@ -9455,7 +9462,7 @@
       <c r="I362" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K362" s="5"/>
+      <c r="K362" s="19"/>
       <c r="L362" s="9"/>
     </row>
     <row r="363" spans="1:12">
@@ -9470,7 +9477,7 @@
       </c>
       <c r="H363" s="20"/>
       <c r="I363" s="20"/>
-      <c r="K363" s="5"/>
+      <c r="K363" s="19"/>
       <c r="L363" s="9"/>
     </row>
     <row r="364" spans="1:12">
@@ -9480,7 +9487,7 @@
       <c r="G364" s="23"/>
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
-      <c r="K364" s="5"/>
+      <c r="K364" s="19"/>
       <c r="L364" s="9"/>
     </row>
     <row r="365" spans="1:12" ht="120">
@@ -9502,7 +9509,7 @@
       <c r="I365" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K365" s="5"/>
+      <c r="K365" s="19"/>
       <c r="L365" s="9"/>
     </row>
     <row r="366" spans="1:12" ht="150">
@@ -9515,7 +9522,7 @@
       <c r="G366" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K366" s="5"/>
+      <c r="K366" s="19"/>
       <c r="L366" s="9"/>
     </row>
     <row r="367" spans="1:12" ht="30">
@@ -9528,7 +9535,7 @@
       <c r="G367" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K367" s="5"/>
+      <c r="K367" s="19"/>
       <c r="L367" s="9"/>
     </row>
     <row r="368" spans="1:12" ht="90">
@@ -9541,7 +9548,7 @@
       <c r="G368" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K368" s="5"/>
+      <c r="K368" s="19"/>
       <c r="L368" s="9"/>
     </row>
     <row r="369" spans="1:12">
@@ -9554,7 +9561,7 @@
       <c r="G369" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K369" s="5"/>
+      <c r="K369" s="19"/>
       <c r="L369" s="9"/>
     </row>
     <row r="370" spans="1:12" ht="30">
@@ -9572,7 +9579,7 @@
       <c r="I370" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K370" s="5"/>
+      <c r="K370" s="19"/>
       <c r="L370" s="9"/>
     </row>
     <row r="371" spans="1:12">
@@ -9587,12 +9594,12 @@
       </c>
       <c r="H371" s="20"/>
       <c r="I371" s="20"/>
-      <c r="K371" s="5"/>
+      <c r="K371" s="19"/>
       <c r="L371" s="9"/>
     </row>
     <row r="372" spans="1:12">
       <c r="A372" s="19"/>
-      <c r="K372" s="5"/>
+      <c r="K372" s="19"/>
       <c r="L372" s="9"/>
     </row>
     <row r="373" spans="1:12" ht="120">
@@ -9614,7 +9621,7 @@
       <c r="I373" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K373" s="5"/>
+      <c r="K373" s="19"/>
       <c r="L373" s="9"/>
     </row>
     <row r="374" spans="1:12" ht="150">
@@ -9627,7 +9634,7 @@
       <c r="G374" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K374" s="5"/>
+      <c r="K374" s="19"/>
       <c r="L374" s="9"/>
     </row>
     <row r="375" spans="1:12" ht="30">
@@ -9640,7 +9647,7 @@
       <c r="G375" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K375" s="5"/>
+      <c r="K375" s="19"/>
       <c r="L375" s="9"/>
     </row>
     <row r="376" spans="1:12" ht="90">
@@ -9653,7 +9660,7 @@
       <c r="G376" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K376" s="5"/>
+      <c r="K376" s="19"/>
       <c r="L376" s="9"/>
     </row>
     <row r="377" spans="1:12" ht="30">
@@ -9671,7 +9678,7 @@
       <c r="I377" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K377" s="5"/>
+      <c r="K377" s="19"/>
       <c r="L377" s="9"/>
     </row>
     <row r="378" spans="1:12">
@@ -9686,7 +9693,7 @@
       </c>
       <c r="H378" s="20"/>
       <c r="I378" s="20"/>
-      <c r="K378" s="5"/>
+      <c r="K378" s="19"/>
       <c r="L378" s="9"/>
     </row>
     <row r="379" spans="1:12">
@@ -9701,7 +9708,7 @@
       </c>
       <c r="H379" s="20"/>
       <c r="I379" s="20"/>
-      <c r="K379" s="5"/>
+      <c r="K379" s="19"/>
       <c r="L379" s="9"/>
     </row>
     <row r="380" spans="1:12" ht="60">
@@ -9714,7 +9721,7 @@
       <c r="G380" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="K380" s="5"/>
+      <c r="K380" s="19"/>
       <c r="L380" s="9"/>
     </row>
     <row r="381" spans="1:12" ht="30">
@@ -9727,7 +9734,7 @@
       <c r="G381" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="K381" s="5"/>
+      <c r="K381" s="19"/>
       <c r="L381" s="9"/>
     </row>
     <row r="382" spans="1:12">
@@ -9735,7 +9742,7 @@
       <c r="E382" s="22"/>
       <c r="F382" s="22"/>
       <c r="G382" s="23"/>
-      <c r="K382" s="5"/>
+      <c r="K382" s="19"/>
       <c r="L382" s="9"/>
     </row>
     <row r="383" spans="1:12" ht="120">
@@ -9757,7 +9764,7 @@
       <c r="I383" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K383" s="5"/>
+      <c r="K383" s="19"/>
       <c r="L383" s="9"/>
     </row>
     <row r="384" spans="1:12" ht="150">
@@ -9770,7 +9777,7 @@
       <c r="G384" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K384" s="5"/>
+      <c r="K384" s="19"/>
       <c r="L384" s="9"/>
     </row>
     <row r="385" spans="1:12" ht="30">
@@ -9783,7 +9790,7 @@
       <c r="G385" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K385" s="5"/>
+      <c r="K385" s="19"/>
       <c r="L385" s="9"/>
     </row>
     <row r="386" spans="1:12" ht="90">
@@ -9796,7 +9803,7 @@
       <c r="G386" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K386" s="5"/>
+      <c r="K386" s="19"/>
       <c r="L386" s="9"/>
     </row>
     <row r="387" spans="1:12">
@@ -9811,7 +9818,7 @@
       </c>
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
-      <c r="K387" s="5"/>
+      <c r="K387" s="19"/>
       <c r="L387" s="9"/>
     </row>
     <row r="388" spans="1:12" ht="75">
@@ -9826,7 +9833,7 @@
       </c>
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
-      <c r="K388" s="5"/>
+      <c r="K388" s="19"/>
       <c r="L388" s="9"/>
     </row>
     <row r="389" spans="1:12">
@@ -9841,7 +9848,7 @@
       </c>
       <c r="H389" s="20"/>
       <c r="I389" s="20"/>
-      <c r="K389" s="5"/>
+      <c r="K389" s="19"/>
       <c r="L389" s="9"/>
     </row>
     <row r="390" spans="1:12">
@@ -9849,7 +9856,7 @@
       <c r="E390" s="22"/>
       <c r="F390" s="23"/>
       <c r="G390" s="23"/>
-      <c r="K390" s="5"/>
+      <c r="K390" s="19"/>
       <c r="L390" s="9"/>
     </row>
     <row r="391" spans="1:12" ht="120">
@@ -9871,7 +9878,7 @@
       <c r="I391" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K391" s="5"/>
+      <c r="K391" s="19"/>
       <c r="L391" s="9"/>
     </row>
     <row r="392" spans="1:12" ht="150">
@@ -9884,7 +9891,7 @@
       <c r="G392" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K392" s="5"/>
+      <c r="K392" s="19"/>
       <c r="L392" s="9"/>
     </row>
     <row r="393" spans="1:12" ht="30">
@@ -9897,7 +9904,7 @@
       <c r="G393" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K393" s="5"/>
+      <c r="K393" s="19"/>
       <c r="L393" s="9"/>
     </row>
     <row r="394" spans="1:12" ht="90">
@@ -9910,7 +9917,7 @@
       <c r="G394" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K394" s="5"/>
+      <c r="K394" s="19"/>
       <c r="L394" s="9"/>
     </row>
     <row r="395" spans="1:12">
@@ -9925,7 +9932,7 @@
       </c>
       <c r="H395" s="6"/>
       <c r="I395" s="6"/>
-      <c r="K395" s="5"/>
+      <c r="K395" s="19"/>
       <c r="L395" s="9"/>
     </row>
     <row r="396" spans="1:12" ht="75">
@@ -9940,7 +9947,7 @@
       </c>
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
-      <c r="K396" s="5"/>
+      <c r="K396" s="19"/>
       <c r="L396" s="9"/>
     </row>
     <row r="397" spans="1:12">
@@ -9955,7 +9962,7 @@
       </c>
       <c r="H397" s="6"/>
       <c r="I397" s="6"/>
-      <c r="K397" s="5"/>
+      <c r="K397" s="19"/>
       <c r="L397" s="9"/>
     </row>
     <row r="398" spans="1:12">
@@ -9970,7 +9977,7 @@
       </c>
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
-      <c r="K398" s="5"/>
+      <c r="K398" s="19"/>
       <c r="L398" s="9"/>
     </row>
     <row r="399" spans="1:12">
@@ -9985,7 +9992,7 @@
       </c>
       <c r="H399" s="20"/>
       <c r="I399" s="20"/>
-      <c r="K399" s="5"/>
+      <c r="K399" s="19"/>
       <c r="L399" s="9"/>
     </row>
     <row r="400" spans="1:12">
@@ -9993,7 +10000,7 @@
       <c r="E400" s="22"/>
       <c r="F400" s="23"/>
       <c r="G400" s="23"/>
-      <c r="K400" s="5"/>
+      <c r="K400" s="19"/>
       <c r="L400" s="9"/>
     </row>
     <row r="401" spans="1:12" ht="120">
@@ -10015,7 +10022,7 @@
       <c r="I401" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K401" s="5"/>
+      <c r="K401" s="19"/>
       <c r="L401" s="9"/>
     </row>
     <row r="402" spans="1:12" ht="150">
@@ -10028,7 +10035,7 @@
       <c r="G402" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K402" s="5"/>
+      <c r="K402" s="19"/>
       <c r="L402" s="9"/>
     </row>
     <row r="403" spans="1:12" ht="30">
@@ -10041,7 +10048,7 @@
       <c r="G403" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K403" s="5"/>
+      <c r="K403" s="19"/>
       <c r="L403" s="9"/>
     </row>
     <row r="404" spans="1:12" ht="90">
@@ -10054,7 +10061,7 @@
       <c r="G404" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K404" s="5"/>
+      <c r="K404" s="19"/>
       <c r="L404" s="9"/>
     </row>
     <row r="405" spans="1:12">
@@ -10069,7 +10076,7 @@
       </c>
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
-      <c r="K405" s="5"/>
+      <c r="K405" s="19"/>
       <c r="L405" s="9"/>
     </row>
     <row r="406" spans="1:12" ht="30">
@@ -10084,7 +10091,7 @@
       <c r="G406" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K406" s="5"/>
+      <c r="K406" s="19"/>
       <c r="L406" s="9"/>
     </row>
     <row r="407" spans="1:12" ht="75">
@@ -10099,7 +10106,7 @@
       </c>
       <c r="H407" s="20"/>
       <c r="I407" s="20"/>
-      <c r="K407" s="5"/>
+      <c r="K407" s="19"/>
       <c r="L407" s="9"/>
     </row>
     <row r="408" spans="1:12">
@@ -10114,7 +10121,7 @@
       </c>
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
-      <c r="K408" s="5"/>
+      <c r="K408" s="19"/>
       <c r="L408" s="9"/>
     </row>
     <row r="409" spans="1:12">
@@ -10129,7 +10136,7 @@
       </c>
       <c r="H409" s="6"/>
       <c r="I409" s="6"/>
-      <c r="K409" s="5"/>
+      <c r="K409" s="19"/>
       <c r="L409" s="9"/>
     </row>
     <row r="410" spans="1:12">
@@ -10140,7 +10147,7 @@
         <v>63</v>
       </c>
       <c r="G410" s="23"/>
-      <c r="K410" s="5"/>
+      <c r="K410" s="19"/>
       <c r="L410" s="9"/>
     </row>
     <row r="411" spans="1:12">
@@ -10148,7 +10155,7 @@
       <c r="E411" s="22"/>
       <c r="F411" s="23"/>
       <c r="G411" s="23"/>
-      <c r="K411" s="5"/>
+      <c r="K411" s="19"/>
       <c r="L411" s="9"/>
     </row>
     <row r="412" spans="1:12" ht="120">
@@ -10170,7 +10177,7 @@
       <c r="I412" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K412" s="5"/>
+      <c r="K412" s="19"/>
       <c r="L412" s="9"/>
     </row>
     <row r="413" spans="1:12" ht="150">
@@ -10183,7 +10190,7 @@
       <c r="G413" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K413" s="5"/>
+      <c r="K413" s="19"/>
       <c r="L413" s="9"/>
     </row>
     <row r="414" spans="1:12" ht="30">
@@ -10196,7 +10203,7 @@
       <c r="G414" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K414" s="5"/>
+      <c r="K414" s="19"/>
       <c r="L414" s="9"/>
     </row>
     <row r="415" spans="1:12" ht="90">
@@ -10209,7 +10216,7 @@
       <c r="G415" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K415" s="5"/>
+      <c r="K415" s="19"/>
       <c r="L415" s="9"/>
     </row>
     <row r="416" spans="1:12">
@@ -10224,7 +10231,7 @@
       </c>
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
-      <c r="K416" s="5"/>
+      <c r="K416" s="19"/>
       <c r="L416" s="9"/>
     </row>
     <row r="417" spans="1:12" ht="30">
@@ -10239,7 +10246,7 @@
       <c r="G417" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K417" s="5"/>
+      <c r="K417" s="19"/>
       <c r="L417" s="9"/>
     </row>
     <row r="418" spans="1:12" ht="75">
@@ -10254,7 +10261,7 @@
       </c>
       <c r="H418" s="20"/>
       <c r="I418" s="20"/>
-      <c r="K418" s="5"/>
+      <c r="K418" s="19"/>
       <c r="L418" s="9"/>
     </row>
     <row r="419" spans="1:12">
@@ -10269,7 +10276,7 @@
       </c>
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
-      <c r="K419" s="5"/>
+      <c r="K419" s="19"/>
       <c r="L419" s="9"/>
     </row>
     <row r="420" spans="1:12">
@@ -10284,7 +10291,7 @@
       </c>
       <c r="H420" s="6"/>
       <c r="I420" s="6"/>
-      <c r="K420" s="5"/>
+      <c r="K420" s="19"/>
       <c r="L420" s="9"/>
     </row>
     <row r="421" spans="1:12" ht="60">
@@ -10297,7 +10304,7 @@
       <c r="G421" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="K421" s="5"/>
+      <c r="K421" s="19"/>
       <c r="L421" s="9"/>
     </row>
     <row r="422" spans="1:12">
@@ -10305,7 +10312,7 @@
       <c r="E422" s="22"/>
       <c r="F422" s="22"/>
       <c r="G422" s="23"/>
-      <c r="K422" s="5"/>
+      <c r="K422" s="19"/>
       <c r="L422" s="9"/>
     </row>
     <row r="423" spans="1:12" ht="120">
@@ -10327,7 +10334,7 @@
       <c r="I423" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K423" s="5"/>
+      <c r="K423" s="19"/>
       <c r="L423" s="9"/>
     </row>
     <row r="424" spans="1:12" ht="150">
@@ -10340,7 +10347,7 @@
       <c r="G424" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K424" s="5"/>
+      <c r="K424" s="19"/>
       <c r="L424" s="9"/>
     </row>
     <row r="425" spans="1:12" ht="30">
@@ -10353,7 +10360,7 @@
       <c r="G425" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K425" s="5"/>
+      <c r="K425" s="19"/>
       <c r="L425" s="9"/>
     </row>
     <row r="426" spans="1:12" ht="90">
@@ -10366,7 +10373,7 @@
       <c r="G426" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K426" s="5"/>
+      <c r="K426" s="19"/>
       <c r="L426" s="9"/>
     </row>
     <row r="427" spans="1:12">
@@ -10381,7 +10388,7 @@
       </c>
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
-      <c r="K427" s="5"/>
+      <c r="K427" s="19"/>
       <c r="L427" s="9"/>
     </row>
     <row r="428" spans="1:12" ht="30">
@@ -10394,7 +10401,7 @@
       <c r="G428" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="K428" s="5"/>
+      <c r="K428" s="19"/>
       <c r="L428" s="9"/>
     </row>
     <row r="429" spans="1:12" ht="30">
@@ -10407,7 +10414,7 @@
       <c r="G429" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="K429" s="5"/>
+      <c r="K429" s="19"/>
       <c r="L429" s="9"/>
     </row>
     <row r="430" spans="1:12">
@@ -10420,7 +10427,7 @@
       <c r="G430" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="K430" s="5"/>
+      <c r="K430" s="19"/>
       <c r="L430" s="9"/>
     </row>
     <row r="431" spans="1:12">
@@ -10433,14 +10440,14 @@
       <c r="G431" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K431" s="5"/>
+      <c r="K431" s="19"/>
       <c r="L431" s="9"/>
     </row>
     <row r="432" spans="1:12">
       <c r="A432" s="19"/>
       <c r="B432" s="19"/>
       <c r="D432" s="23"/>
-      <c r="K432" s="5"/>
+      <c r="K432" s="19"/>
       <c r="L432" s="9"/>
     </row>
     <row r="433" spans="1:12" ht="120">
@@ -10462,7 +10469,7 @@
       <c r="I433" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K433" s="5"/>
+      <c r="K433" s="19"/>
       <c r="L433" s="9"/>
     </row>
     <row r="434" spans="1:12" ht="150">
@@ -10475,7 +10482,7 @@
       <c r="G434" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K434" s="5"/>
+      <c r="K434" s="19"/>
       <c r="L434" s="9"/>
     </row>
     <row r="435" spans="1:12" ht="30">
@@ -10488,7 +10495,7 @@
       <c r="G435" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K435" s="5"/>
+      <c r="K435" s="19"/>
       <c r="L435" s="9"/>
     </row>
     <row r="436" spans="1:12" ht="90">
@@ -10501,7 +10508,7 @@
       <c r="G436" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K436" s="5"/>
+      <c r="K436" s="19"/>
       <c r="L436" s="9"/>
     </row>
     <row r="437" spans="1:12">
@@ -10516,7 +10523,7 @@
       </c>
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
-      <c r="K437" s="5"/>
+      <c r="K437" s="19"/>
       <c r="L437" s="9"/>
     </row>
     <row r="438" spans="1:12" ht="75">
@@ -10531,7 +10538,7 @@
       </c>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
-      <c r="K438" s="5"/>
+      <c r="K438" s="19"/>
       <c r="L438" s="9"/>
     </row>
     <row r="439" spans="1:12">
@@ -10546,7 +10553,7 @@
       </c>
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
-      <c r="K439" s="5"/>
+      <c r="K439" s="19"/>
       <c r="L439" s="9"/>
     </row>
     <row r="440" spans="1:12">
@@ -10561,7 +10568,7 @@
       </c>
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
-      <c r="K440" s="5"/>
+      <c r="K440" s="19"/>
       <c r="L440" s="9"/>
     </row>
     <row r="441" spans="1:12">
@@ -10576,7 +10583,7 @@
       </c>
       <c r="H441" s="20"/>
       <c r="I441" s="20"/>
-      <c r="K441" s="5"/>
+      <c r="K441" s="19"/>
       <c r="L441" s="9"/>
     </row>
     <row r="442" spans="1:12" ht="45">
@@ -10591,7 +10598,7 @@
       </c>
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
-      <c r="K442" s="5"/>
+      <c r="K442" s="19"/>
       <c r="L442" s="9"/>
     </row>
     <row r="443" spans="1:12" ht="30">
@@ -10606,7 +10613,7 @@
       </c>
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
-      <c r="K443" s="5"/>
+      <c r="K443" s="19"/>
       <c r="L443" s="9"/>
     </row>
     <row r="444" spans="1:12">
@@ -10614,7 +10621,7 @@
       <c r="E444" s="22"/>
       <c r="F444" s="23"/>
       <c r="G444" s="23"/>
-      <c r="K444" s="5"/>
+      <c r="K444" s="19"/>
       <c r="L444" s="9"/>
     </row>
     <row r="445" spans="1:12" ht="120">
@@ -10636,7 +10643,7 @@
       <c r="I445" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K445" s="5"/>
+      <c r="K445" s="19"/>
       <c r="L445" s="9"/>
     </row>
     <row r="446" spans="1:12" ht="150">
@@ -10649,7 +10656,7 @@
       <c r="G446" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K446" s="5"/>
+      <c r="K446" s="19"/>
       <c r="L446" s="9"/>
     </row>
     <row r="447" spans="1:12" ht="30">
@@ -10662,7 +10669,7 @@
       <c r="G447" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K447" s="5"/>
+      <c r="K447" s="19"/>
       <c r="L447" s="9"/>
     </row>
     <row r="448" spans="1:12" ht="90">
@@ -10675,7 +10682,7 @@
       <c r="G448" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K448" s="5"/>
+      <c r="K448" s="19"/>
       <c r="L448" s="9"/>
     </row>
     <row r="449" spans="1:12">
@@ -10690,7 +10697,7 @@
       </c>
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
-      <c r="K449" s="5"/>
+      <c r="K449" s="19"/>
       <c r="L449" s="9"/>
     </row>
     <row r="450" spans="1:12">
@@ -10701,7 +10708,7 @@
       <c r="G450" s="23"/>
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
-      <c r="K450" s="5"/>
+      <c r="K450" s="19"/>
       <c r="L450" s="9"/>
     </row>
     <row r="451" spans="1:12" ht="75">
@@ -10716,7 +10723,7 @@
       </c>
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
-      <c r="K451" s="5"/>
+      <c r="K451" s="19"/>
       <c r="L451" s="9"/>
     </row>
     <row r="452" spans="1:12">
@@ -10731,7 +10738,7 @@
       </c>
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
-      <c r="K452" s="5"/>
+      <c r="K452" s="19"/>
       <c r="L452" s="9"/>
     </row>
     <row r="453" spans="1:12">
@@ -10746,7 +10753,7 @@
       </c>
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
-      <c r="K453" s="5"/>
+      <c r="K453" s="19"/>
       <c r="L453" s="9"/>
     </row>
     <row r="454" spans="1:12">
@@ -10761,7 +10768,7 @@
       </c>
       <c r="H454" s="20"/>
       <c r="I454" s="20"/>
-      <c r="K454" s="5"/>
+      <c r="K454" s="19"/>
       <c r="L454" s="9"/>
     </row>
     <row r="455" spans="1:12" ht="45">
@@ -10776,7 +10783,7 @@
       </c>
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
-      <c r="K455" s="5"/>
+      <c r="K455" s="19"/>
       <c r="L455" s="9"/>
     </row>
     <row r="456" spans="1:12" ht="30">
@@ -10791,7 +10798,7 @@
       </c>
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
-      <c r="K456" s="5"/>
+      <c r="K456" s="19"/>
       <c r="L456" s="9"/>
     </row>
     <row r="457" spans="1:12" ht="30">
@@ -10806,14 +10813,14 @@
       </c>
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
-      <c r="K457" s="5"/>
+      <c r="K457" s="19"/>
       <c r="L457" s="9"/>
     </row>
     <row r="458" spans="1:12">
       <c r="A458" s="19"/>
       <c r="H458" s="20"/>
       <c r="I458" s="20"/>
-      <c r="K458" s="5"/>
+      <c r="K458" s="19"/>
       <c r="L458" s="9"/>
     </row>
     <row r="459" spans="1:12" ht="120">
@@ -10835,7 +10842,7 @@
       <c r="I459" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K459" s="5"/>
+      <c r="K459" s="19"/>
       <c r="L459" s="9"/>
     </row>
     <row r="460" spans="1:12" ht="150">
@@ -10848,7 +10855,7 @@
       <c r="G460" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K460" s="5"/>
+      <c r="K460" s="19"/>
       <c r="L460" s="9"/>
     </row>
     <row r="461" spans="1:12" ht="30">
@@ -10861,7 +10868,7 @@
       <c r="G461" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K461" s="5"/>
+      <c r="K461" s="19"/>
       <c r="L461" s="9"/>
     </row>
     <row r="462" spans="1:12" ht="90">
@@ -10874,7 +10881,7 @@
       <c r="G462" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K462" s="5"/>
+      <c r="K462" s="19"/>
       <c r="L462" s="9"/>
     </row>
     <row r="463" spans="1:12">
@@ -10891,7 +10898,7 @@
       <c r="I463" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K463" s="5"/>
+      <c r="K463" s="19"/>
       <c r="L463" s="9"/>
     </row>
     <row r="464" spans="1:12" ht="75">
@@ -10904,7 +10911,7 @@
       <c r="G464" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="K464" s="5"/>
+      <c r="K464" s="19"/>
       <c r="L464" s="9"/>
     </row>
     <row r="465" spans="1:12" ht="75">
@@ -10919,7 +10926,7 @@
       </c>
       <c r="H465" s="6"/>
       <c r="I465" s="6"/>
-      <c r="K465" s="5"/>
+      <c r="K465" s="19"/>
       <c r="L465" s="9"/>
     </row>
     <row r="466" spans="1:12" ht="30">
@@ -10934,7 +10941,7 @@
       </c>
       <c r="H466" s="6"/>
       <c r="I466" s="6"/>
-      <c r="K466" s="5"/>
+      <c r="K466" s="19"/>
       <c r="L466" s="9"/>
     </row>
     <row r="467" spans="1:12">
@@ -10949,7 +10956,7 @@
       </c>
       <c r="H467" s="6"/>
       <c r="I467" s="6"/>
-      <c r="K467" s="5"/>
+      <c r="K467" s="19"/>
       <c r="L467" s="9"/>
     </row>
     <row r="468" spans="1:12">
@@ -10964,7 +10971,7 @@
       </c>
       <c r="H468" s="20"/>
       <c r="I468" s="20"/>
-      <c r="K468" s="5"/>
+      <c r="K468" s="19"/>
       <c r="L468" s="9"/>
     </row>
     <row r="469" spans="1:12" ht="60">
@@ -10977,7 +10984,7 @@
       <c r="G469" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="K469" s="5"/>
+      <c r="K469" s="19"/>
       <c r="L469" s="9"/>
     </row>
     <row r="470" spans="1:12">
@@ -10990,7 +10997,7 @@
       <c r="G470" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="K470" s="5"/>
+      <c r="K470" s="19"/>
       <c r="L470" s="9"/>
     </row>
     <row r="471" spans="1:12" ht="45">
@@ -11003,14 +11010,14 @@
       <c r="G471" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K471" s="5"/>
+      <c r="K471" s="19"/>
       <c r="L471" s="9"/>
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="19"/>
       <c r="B472" s="19"/>
       <c r="D472" s="23"/>
-      <c r="K472" s="5"/>
+      <c r="K472" s="19"/>
       <c r="L472" s="9"/>
     </row>
     <row r="473" spans="1:12" ht="120">
@@ -11032,7 +11039,7 @@
       <c r="I473" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K473" s="5"/>
+      <c r="K473" s="19"/>
       <c r="L473" s="9"/>
     </row>
     <row r="474" spans="1:12" ht="150">
@@ -11045,7 +11052,7 @@
       <c r="G474" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K474" s="5"/>
+      <c r="K474" s="19"/>
       <c r="L474" s="9"/>
     </row>
     <row r="475" spans="1:12" ht="30">
@@ -11058,7 +11065,7 @@
       <c r="G475" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="K475" s="5"/>
+      <c r="K475" s="19"/>
       <c r="L475" s="9"/>
     </row>
     <row r="476" spans="1:12" ht="90">
@@ -11071,7 +11078,7 @@
       <c r="G476" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K476" s="5"/>
+      <c r="K476" s="19"/>
       <c r="L476" s="9"/>
     </row>
     <row r="477" spans="1:12">
@@ -11088,7 +11095,7 @@
       <c r="I477" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K477" s="5"/>
+      <c r="K477" s="19"/>
       <c r="L477" s="9"/>
     </row>
     <row r="478" spans="1:12" ht="75">
@@ -11101,7 +11108,7 @@
       <c r="G478" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="K478" s="5"/>
+      <c r="K478" s="19"/>
       <c r="L478" s="9"/>
     </row>
     <row r="479" spans="1:12" ht="75">
@@ -11116,7 +11123,7 @@
       </c>
       <c r="H479" s="6"/>
       <c r="I479" s="6"/>
-      <c r="K479" s="5"/>
+      <c r="K479" s="19"/>
       <c r="L479" s="9"/>
     </row>
     <row r="480" spans="1:12">
@@ -11131,7 +11138,7 @@
       </c>
       <c r="H480" s="6"/>
       <c r="I480" s="6"/>
-      <c r="K480" s="5"/>
+      <c r="K480" s="19"/>
       <c r="L480" s="9"/>
     </row>
     <row r="481" spans="1:12">
@@ -11146,7 +11153,7 @@
       </c>
       <c r="H481" s="6"/>
       <c r="I481" s="6"/>
-      <c r="K481" s="5"/>
+      <c r="K481" s="19"/>
       <c r="L481" s="9"/>
     </row>
     <row r="482" spans="1:12">
@@ -11161,7 +11168,7 @@
       </c>
       <c r="H482" s="20"/>
       <c r="I482" s="20"/>
-      <c r="K482" s="5"/>
+      <c r="K482" s="19"/>
       <c r="L482" s="9"/>
     </row>
     <row r="483" spans="1:12" ht="30">
@@ -11174,7 +11181,7 @@
       <c r="G483" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="K483" s="5"/>
+      <c r="K483" s="19"/>
       <c r="L483" s="9"/>
     </row>
     <row r="484" spans="1:12" ht="30">
@@ -11187,7 +11194,7 @@
       <c r="G484" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="K484" s="5"/>
+      <c r="K484" s="19"/>
       <c r="L484" s="9"/>
     </row>
     <row r="485" spans="1:12" ht="90">
@@ -11200,18 +11207,18 @@
       <c r="G485" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K485" s="5"/>
+      <c r="K485" s="19"/>
       <c r="L485" s="9"/>
     </row>
     <row r="486" spans="1:12">
-      <c r="K486" s="5"/>
+      <c r="K486" s="19"/>
       <c r="L486" s="9"/>
     </row>
     <row r="487" spans="1:12">
       <c r="A487" s="19"/>
       <c r="B487" s="19"/>
       <c r="D487" s="23"/>
-      <c r="K487" s="5"/>
+      <c r="K487" s="19"/>
       <c r="L487" s="9"/>
     </row>
     <row r="488" spans="1:12" ht="120">
@@ -11233,7 +11240,7 @@
       <c r="I488" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K488" s="5"/>
+      <c r="K488" s="19"/>
       <c r="L488" s="9"/>
     </row>
     <row r="489" spans="1:12" ht="150">
@@ -11612,7 +11619,7 @@
       <c r="G515" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K515" s="5"/>
+      <c r="K515" s="19"/>
       <c r="L515" s="9"/>
     </row>
     <row r="516" spans="1:12">

--- a/Test Execution/Nithya/Test Case- Lab Result.xlsx
+++ b/Test Execution/Nithya/Test Case- Lab Result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="893">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3511,7 +3511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3522,8 +3522,8 @@
   <dimension ref="A1:S1214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I359" sqref="I359"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L162" sqref="L162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="S2" s="14">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="150">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="S3" s="14">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1" ht="105">
@@ -5779,15 +5779,14 @@
       <c r="G132" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="H132" s="7" t="s">
+        <v>867</v>
+      </c>
       <c r="I132" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="K132" s="19" t="s">
-        <v>857</v>
-      </c>
-      <c r="L132" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="K132" s="19"/>
+      <c r="L132" s="9"/>
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="E133" s="7">
@@ -5798,6 +5797,15 @@
       </c>
       <c r="G133" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K133" s="19" t="s">
+        <v>892</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5890,7 +5898,7 @@
         <v>867</v>
       </c>
       <c r="K139" s="19" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="L139" s="9" t="s">
         <v>12</v>
@@ -5985,7 +5993,7 @@
         <v>867</v>
       </c>
       <c r="K145" s="19" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>12</v>
@@ -6112,10 +6120,10 @@
         <v>867</v>
       </c>
       <c r="K153" s="19" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="L153" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6255,10 +6263,10 @@
         <v>867</v>
       </c>
       <c r="K162" s="19" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="L162" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -20106,7 +20114,7 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1065:C1066 C1079:C1080 C1086:C1087 C1094:C1095 C1103:C1104 C1113:C1114 C1123:C1124 C1136:C1137 C1143:C1144 C1151:C1152 C1160:C1161 C1167:C1168 C1174:C1175 C1184:C1185 C1191:C1192 C1199:C1200 C1209:C1210 C704:C711 K352:K488 K515 C663:C668 C672:C677 C683:C688 C694:C701 C714:C715 C720:C721 C726:C727 C732:C733 C738:C739 C744:C745 C750:C751 C756:C757 C763:C764 C770:C771 C779:C780 C788:C789 C797:C798 C806:C807 C817:C818 C828:C829 C839:C840 C846:C847 C855:C856 C864:C865 C873:C874 C882:C883 C891:C892 C901:C902 C908:C909 C915:C916 C922:C923 C931:C932 C940:C941 C949:C950 C958:C959 C967:C968 C976:C977 C985:C986 C994:C995 C1002:C1003 C1010:C1011 C1019:C1020 C1055:C1056 C1045:C1046 C1035:C1036 C1027:C1028 C1072:C1073 C111:C659 K2:K24 K39:K64 C95:C109 C79:C93 C69:C77 C2:C64 K26:K37 K69:K78 K80:K112 K114:K126 K128:K132 K134:K343 J344:J351">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1065:C1066 C1079:C1080 C1086:C1087 C1094:C1095 C1103:C1104 C1113:C1114 C1123:C1124 C1136:C1137 C1143:C1144 C1151:C1152 C1160:C1161 C1167:C1168 C1174:C1175 C1184:C1185 C1191:C1192 C1199:C1200 C1209:C1210 C704:C711 K352:K488 K515 C663:C668 C672:C677 C683:C688 C694:C701 C714:C715 C720:C721 C726:C727 C732:C733 C738:C739 C744:C745 C750:C751 C756:C757 C763:C764 C770:C771 C779:C780 C788:C789 C797:C798 C806:C807 C817:C818 C828:C829 C839:C840 C846:C847 C855:C856 C864:C865 C873:C874 C882:C883 C891:C892 C901:C902 C908:C909 C915:C916 C922:C923 C931:C932 C940:C941 C949:C950 C958:C959 C967:C968 C976:C977 C985:C986 C994:C995 C1002:C1003 C1010:C1011 C1019:C1020 C1055:C1056 C1045:C1046 C1035:C1036 C1027:C1028 C1072:C1073 C111:C659 K2:K24 K39:K64 C95:C109 C79:C93 C69:C77 C2:C64 K26:K37 K69:K78 K80:K112 K114:K126 K128:K343 J344:J351">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1065 B1072 B1079 B1086 B1094 B1103 B1113 B1123 B1136 B1143 B1151 B1160 B1167 B1174 B1184 B1191 B1199 B1209 B362 B365 B373 B377 B406 B401 B412 B432:B433 B423 B391 B417 B445 B472:B473 B459 B487:B488 B383 B358 B370 B514 B522 B517 B524 B536 B540 B548 B545 B557 B572:B573 B565 B587:B588 B594:B595 B603 B581 B615 B617 B626:B627 B635 B644 B654 B663 B672 B683 B694 B704 B497 B506 B529 B531 B607 B714 B720 B726 B732 B738 B744 B750 B756 B763 B770 B779 B788 B797 B806 B817 B828 B839 B846 B855 B864 B873 B882 B891 B901 B908 B915 B922 B931 B940 B949 B958 B967 B976 B985 B994 B1002 B1010 B1019 B1055 B1045 B1035 B1027 B319 B291 B270 B237 B250 B216 B198 B184 B174 B147 B129 B116 B121 B97 B69 B57 B27 B9 B155 B163:B164 B141 B134:B135 B102 B86 B74 B80:B81 B52 B47 B32 B24:B25 B14:B15 B41 B2 B191 B205:B206 B227 B260 B280:B281 B303:B304 B331 B344:B345">
@@ -20115,7 +20123,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C712:C713 C660:C662 C669:C671 C678:C682 C689:C693 C702:C703 C716:C719 C722:C725 C728:C730 C734:C736 C740 C746 C752 C758 C765 C772 C781 C790 C799 C808 C819 C830 C841:C842 C848:C849 C857:C858 C866:C867 C875:C876 C884:C885 C893:C894">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L507:L736 L352:L505 L134:L343 L128:L132 L114:L126 L80:L112 L39:L78 L26:L37 L2:L24 K344:K351">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L507:L736 L352:L505 L128:L343 L114:L126 L80:L112 L39:L78 L26:L37 L2:L24 K344:K351">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K489:K505 K507:K514 K516:K680 K683:K691">

--- a/Test Execution/Nithya/Test Case- Lab Result.xlsx
+++ b/Test Execution/Nithya/Test Case- Lab Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Nithya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2BAC12-10C8-424A-B0D5-5C23CB46E2FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492DA402-765C-48EB-8538-CC4D3B7D5F21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="911">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3037,6 +3037,24 @@
   </si>
   <si>
     <t>Nothing will happen while clicking PACS Result  View button</t>
+  </si>
+  <si>
+    <t>Click on Result Print&gt;&gt;Select check box</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Unable to view the preview of a patient result.</t>
+  </si>
+  <si>
+    <t>print preview is not working.No action is performed</t>
+  </si>
+  <si>
+    <t>Empty Print Index report is displaying.</t>
+  </si>
+  <si>
+    <t>Result delivery is empty.Delivered user is not listing</t>
   </si>
 </sst>
 </file>
@@ -3096,7 +3114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3118,6 +3136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3159,7 +3183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3248,14 +3272,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3574,9 +3613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B546" sqref="B546"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A913" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K917" sqref="K917:L917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,14 +3675,14 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="R1" s="31" t="s">
+      <c r="P1" s="32"/>
+      <c r="R1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="31"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -3683,7 +3722,7 @@
       </c>
       <c r="S2" s="14">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -3713,14 +3752,14 @@
       </c>
       <c r="P3" s="12">
         <f>COUNTA(L:L)-1</f>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="14">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -3754,7 +3793,7 @@
       </c>
       <c r="S4" s="14">
         <f>COUNTIF(L:L,"Blocked")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -12229,7 +12268,7 @@
       <c r="A528" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="B528" s="32" t="s">
+      <c r="B528" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C528" s="5" t="s">
@@ -12494,7 +12533,7 @@
       <c r="L544" s="9"/>
     </row>
     <row r="545" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A545" s="19" t="s">
+      <c r="A545" s="31" t="s">
         <v>328</v>
       </c>
       <c r="B545" s="19" t="s">
@@ -12512,8 +12551,12 @@
       <c r="I545" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K545" s="9"/>
-      <c r="L545" s="9"/>
+      <c r="K545" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L545" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="546" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E546" s="7">
@@ -14602,7 +14645,7 @@
       <c r="L700" s="9"/>
     </row>
     <row r="701" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A701" s="19" t="s">
+      <c r="A701" s="31" t="s">
         <v>439</v>
       </c>
       <c r="B701" s="19" t="s">
@@ -14753,6 +14796,9 @@
       <c r="G712" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="H712" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="L712" s="9"/>
     </row>
     <row r="713" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14765,6 +14811,9 @@
       <c r="G713" s="7" t="s">
         <v>443</v>
       </c>
+      <c r="H713" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="L713" s="9"/>
     </row>
     <row r="714" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14777,6 +14826,9 @@
       <c r="G714" s="7" t="s">
         <v>351</v>
       </c>
+      <c r="H714" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I714" s="7" t="s">
         <v>446</v>
       </c>
@@ -14792,7 +14844,15 @@
       <c r="G715" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="L715" s="9"/>
+      <c r="H715" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K715" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L715" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="19"/>
@@ -14829,6 +14889,9 @@
       <c r="G718" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="H718" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="L718" s="9"/>
     </row>
     <row r="719" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14841,6 +14904,9 @@
       <c r="G719" s="7" t="s">
         <v>443</v>
       </c>
+      <c r="H719" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="L719" s="9"/>
     </row>
     <row r="720" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14853,6 +14919,9 @@
       <c r="G720" s="7" t="s">
         <v>451</v>
       </c>
+      <c r="H720" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I720" s="7" t="s">
         <v>452</v>
       </c>
@@ -14868,7 +14937,15 @@
       <c r="G721" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="L721" s="9"/>
+      <c r="H721" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K721" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L721" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722" s="19"/>
@@ -14905,6 +14982,9 @@
       <c r="G724" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="H724" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="L724" s="9"/>
     </row>
     <row r="725" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14912,10 +14992,13 @@
         <v>2</v>
       </c>
       <c r="F725" s="7" t="s">
-        <v>442</v>
+        <v>905</v>
       </c>
       <c r="G725" s="7" t="s">
         <v>443</v>
+      </c>
+      <c r="H725" s="7" t="s">
+        <v>861</v>
       </c>
       <c r="L725" s="9"/>
     </row>
@@ -14929,6 +15012,9 @@
       <c r="G726" s="7" t="s">
         <v>456</v>
       </c>
+      <c r="H726" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I726" s="7" t="s">
         <v>462</v>
       </c>
@@ -14944,7 +15030,15 @@
       <c r="G727" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="L727" s="9"/>
+      <c r="H727" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K727" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L727" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" s="19"/>
@@ -14981,6 +15075,9 @@
       <c r="G730" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="H730" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="L730" s="9"/>
     </row>
     <row r="731" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14993,6 +15090,9 @@
       <c r="G731" s="7" t="s">
         <v>443</v>
       </c>
+      <c r="H731" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="L731" s="9"/>
     </row>
     <row r="732" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15005,6 +15105,9 @@
       <c r="G732" s="7" t="s">
         <v>460</v>
       </c>
+      <c r="H732" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I732" s="7" t="s">
         <v>461</v>
       </c>
@@ -15020,7 +15123,15 @@
       <c r="G733" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="L733" s="9"/>
+      <c r="H733" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K733" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L733" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734" s="19"/>
@@ -15055,8 +15166,11 @@
       <c r="G736" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="737" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H736" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E737" s="7">
         <v>2</v>
       </c>
@@ -15066,8 +15180,11 @@
       <c r="G737" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="738" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H737" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E738" s="7">
         <v>3</v>
       </c>
@@ -15077,11 +15194,14 @@
       <c r="G738" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H738" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I738" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="739" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E739" s="7">
         <v>4</v>
       </c>
@@ -15091,11 +15211,20 @@
       <c r="G739" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H739" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K739" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L739" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A740" s="19"/>
     </row>
-    <row r="741" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A741" s="19" t="s">
         <v>474</v>
       </c>
@@ -15115,7 +15244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="742" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E742" s="7">
         <v>1</v>
       </c>
@@ -15125,8 +15254,11 @@
       <c r="G742" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="743" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H742" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E743" s="7">
         <v>2</v>
       </c>
@@ -15136,8 +15268,11 @@
       <c r="G743" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="744" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H743" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="744" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E744" s="7">
         <v>3</v>
       </c>
@@ -15147,11 +15282,14 @@
       <c r="G744" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H744" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I744" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="745" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E745" s="7">
         <v>4</v>
       </c>
@@ -15161,11 +15299,20 @@
       <c r="G745" s="7" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H745" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K745" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L745" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A746" s="19"/>
     </row>
-    <row r="747" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A747" s="19" t="s">
         <v>475</v>
       </c>
@@ -15185,7 +15332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E748" s="7">
         <v>1</v>
       </c>
@@ -15195,8 +15342,11 @@
       <c r="G748" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="749" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H748" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E749" s="7">
         <v>2</v>
       </c>
@@ -15206,8 +15356,11 @@
       <c r="G749" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="750" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H749" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="750" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E750" s="7">
         <v>3</v>
       </c>
@@ -15217,11 +15370,14 @@
       <c r="G750" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H750" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I750" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E751" s="7">
         <v>4</v>
       </c>
@@ -15231,11 +15387,20 @@
       <c r="G751" s="7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H751" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K751" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L751" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A752" s="19"/>
     </row>
-    <row r="753" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A753" s="19" t="s">
         <v>480</v>
       </c>
@@ -15255,7 +15420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E754" s="7">
         <v>1</v>
       </c>
@@ -15265,8 +15430,11 @@
       <c r="G754" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="755" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H754" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E755" s="7">
         <v>2</v>
       </c>
@@ -15276,8 +15444,11 @@
       <c r="G755" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="756" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H755" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E756" s="7">
         <v>3</v>
       </c>
@@ -15287,11 +15458,14 @@
       <c r="G756" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H756" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I756" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="757" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E757" s="7">
         <v>4</v>
       </c>
@@ -15301,8 +15475,11 @@
       <c r="G757" s="7" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="758" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H757" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E758" s="7">
         <v>5</v>
       </c>
@@ -15312,14 +15489,23 @@
       <c r="G758" s="7" t="s">
         <v>484</v>
       </c>
+      <c r="H758" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I758" s="7" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K758" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L758" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A759" s="19"/>
     </row>
-    <row r="760" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A760" s="19" t="s">
         <v>486</v>
       </c>
@@ -15339,7 +15525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="761" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E761" s="7">
         <v>1</v>
       </c>
@@ -15349,8 +15535,11 @@
       <c r="G761" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="762" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H761" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E762" s="7">
         <v>2</v>
       </c>
@@ -15360,8 +15549,11 @@
       <c r="G762" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="763" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H762" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E763" s="7">
         <v>3</v>
       </c>
@@ -15371,11 +15563,14 @@
       <c r="G763" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H763" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I763" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="764" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E764" s="7">
         <v>4</v>
       </c>
@@ -15385,8 +15580,11 @@
       <c r="G764" s="7" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="765" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H764" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E765" s="7">
         <v>5</v>
       </c>
@@ -15396,14 +15594,23 @@
       <c r="G765" s="7" t="s">
         <v>484</v>
       </c>
+      <c r="H765" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I765" s="7" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K765" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L765" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766" s="19"/>
     </row>
-    <row r="767" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A767" s="19" t="s">
         <v>496</v>
       </c>
@@ -15423,7 +15630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="768" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E768" s="7">
         <v>1</v>
       </c>
@@ -15433,8 +15640,11 @@
       <c r="G768" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="769" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H768" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E769" s="7">
         <v>2</v>
       </c>
@@ -15444,8 +15654,11 @@
       <c r="G769" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="770" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H769" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E770" s="7">
         <v>3</v>
       </c>
@@ -15455,11 +15668,14 @@
       <c r="G770" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H770" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I770" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="771" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E771" s="7">
         <v>4</v>
       </c>
@@ -15469,8 +15685,11 @@
       <c r="G771" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="772" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H771" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E772" s="7">
         <v>5</v>
       </c>
@@ -15480,11 +15699,14 @@
       <c r="G772" s="7" t="s">
         <v>489</v>
       </c>
+      <c r="H772" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I772" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E773" s="7">
         <v>6</v>
       </c>
@@ -15494,11 +15716,14 @@
       <c r="G773" s="7" t="s">
         <v>491</v>
       </c>
+      <c r="H773" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I773" s="7" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="774" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E774" s="7">
         <v>7</v>
       </c>
@@ -15508,11 +15733,20 @@
       <c r="G774" s="7" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H774" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K774" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L774" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775" s="19"/>
     </row>
-    <row r="776" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A776" s="19" t="s">
         <v>501</v>
       </c>
@@ -15532,7 +15766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="777" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E777" s="7">
         <v>1</v>
       </c>
@@ -15542,8 +15776,11 @@
       <c r="G777" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="778" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H777" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E778" s="7">
         <v>2</v>
       </c>
@@ -15553,8 +15790,11 @@
       <c r="G778" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="779" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H778" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E779" s="7">
         <v>3</v>
       </c>
@@ -15564,11 +15804,14 @@
       <c r="G779" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H779" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I779" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="780" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E780" s="7">
         <v>4</v>
       </c>
@@ -15578,8 +15821,11 @@
       <c r="G780" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="781" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H780" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E781" s="7">
         <v>5</v>
       </c>
@@ -15589,11 +15835,14 @@
       <c r="G781" s="7" t="s">
         <v>489</v>
       </c>
+      <c r="H781" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I781" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="782" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E782" s="7">
         <v>6</v>
       </c>
@@ -15603,11 +15852,14 @@
       <c r="G782" s="7" t="s">
         <v>491</v>
       </c>
+      <c r="H782" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I782" s="7" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E783" s="7">
         <v>7</v>
       </c>
@@ -15617,11 +15869,20 @@
       <c r="G783" s="7" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H783" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K783" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L783" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A784" s="19"/>
     </row>
-    <row r="785" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A785" s="19" t="s">
         <v>505</v>
       </c>
@@ -15641,7 +15902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="786" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E786" s="7">
         <v>1</v>
       </c>
@@ -15651,8 +15912,11 @@
       <c r="G786" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="787" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H786" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="787" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E787" s="7">
         <v>2</v>
       </c>
@@ -15662,8 +15926,11 @@
       <c r="G787" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="788" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H787" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="788" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E788" s="7">
         <v>3</v>
       </c>
@@ -15673,11 +15940,14 @@
       <c r="G788" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H788" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I788" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="789" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E789" s="7">
         <v>4</v>
       </c>
@@ -15687,8 +15957,11 @@
       <c r="G789" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="790" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H789" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="790" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E790" s="7">
         <v>5</v>
       </c>
@@ -15698,11 +15971,14 @@
       <c r="G790" s="7" t="s">
         <v>489</v>
       </c>
+      <c r="H790" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I790" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="791" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E791" s="7">
         <v>6</v>
       </c>
@@ -15712,11 +15988,14 @@
       <c r="G791" s="7" t="s">
         <v>504</v>
       </c>
+      <c r="H791" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I791" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="792" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E792" s="7">
         <v>7</v>
       </c>
@@ -15726,11 +16005,20 @@
       <c r="G792" s="7" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H792" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K792" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L792" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" s="19"/>
     </row>
-    <row r="794" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A794" s="19" t="s">
         <v>511</v>
       </c>
@@ -15750,7 +16038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="795" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E795" s="7">
         <v>1</v>
       </c>
@@ -15760,8 +16048,11 @@
       <c r="G795" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="796" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H795" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E796" s="7">
         <v>2</v>
       </c>
@@ -15771,8 +16062,11 @@
       <c r="G796" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="797" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H796" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E797" s="7">
         <v>3</v>
       </c>
@@ -15782,11 +16076,14 @@
       <c r="G797" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H797" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I797" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="798" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E798" s="7">
         <v>4</v>
       </c>
@@ -15796,8 +16093,11 @@
       <c r="G798" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="799" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H798" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E799" s="7">
         <v>5</v>
       </c>
@@ -15807,11 +16107,14 @@
       <c r="G799" s="7" t="s">
         <v>489</v>
       </c>
+      <c r="H799" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I799" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="800" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E800" s="7">
         <v>6</v>
       </c>
@@ -15821,11 +16124,14 @@
       <c r="G800" s="7" t="s">
         <v>504</v>
       </c>
+      <c r="H800" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I800" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="801" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E801" s="7">
         <v>7</v>
       </c>
@@ -15835,11 +16141,20 @@
       <c r="G801" s="7" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H801" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K801" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L801" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A802" s="19"/>
     </row>
-    <row r="803" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A803" s="19" t="s">
         <v>520</v>
       </c>
@@ -15859,7 +16174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="804" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E804" s="7">
         <v>1</v>
       </c>
@@ -15869,8 +16184,11 @@
       <c r="G804" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="805" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H804" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E805" s="7">
         <v>2</v>
       </c>
@@ -15880,8 +16198,11 @@
       <c r="G805" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="806" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H805" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E806" s="7">
         <v>3</v>
       </c>
@@ -15891,11 +16212,14 @@
       <c r="G806" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H806" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I806" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="807" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E807" s="7">
         <v>4</v>
       </c>
@@ -15905,8 +16229,11 @@
       <c r="G807" s="7" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="808" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H807" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E808" s="7">
         <v>5</v>
       </c>
@@ -15916,11 +16243,14 @@
       <c r="G808" s="7" t="s">
         <v>489</v>
       </c>
+      <c r="H808" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I808" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="809" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E809" s="7">
         <v>6</v>
       </c>
@@ -15930,11 +16260,14 @@
       <c r="G809" s="7" t="s">
         <v>515</v>
       </c>
+      <c r="H809" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I809" s="7" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="810" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E810" s="7">
         <v>7</v>
       </c>
@@ -15944,11 +16277,14 @@
       <c r="G810" s="7" t="s">
         <v>504</v>
       </c>
+      <c r="H810" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I810" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="811" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E811" s="7">
         <v>8</v>
       </c>
@@ -15958,8 +16294,11 @@
       <c r="G811" s="7" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="812" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H811" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E812" s="7">
         <v>9</v>
       </c>
@@ -15969,11 +16308,20 @@
       <c r="G812" s="7" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H812" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="K812" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L812" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A813" s="19"/>
     </row>
-    <row r="814" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A814" s="19" t="s">
         <v>521</v>
       </c>
@@ -15993,7 +16341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="815" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E815" s="7">
         <v>1</v>
       </c>
@@ -16003,8 +16351,11 @@
       <c r="G815" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="816" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H815" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E816" s="7">
         <v>2</v>
       </c>
@@ -16014,8 +16365,11 @@
       <c r="G816" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="817" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H816" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E817" s="7">
         <v>3</v>
       </c>
@@ -16025,11 +16379,14 @@
       <c r="G817" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H817" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I817" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="818" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E818" s="7">
         <v>4</v>
       </c>
@@ -16039,8 +16396,11 @@
       <c r="G818" s="7" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="819" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H818" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E819" s="7">
         <v>5</v>
       </c>
@@ -16050,11 +16410,14 @@
       <c r="G819" s="7" t="s">
         <v>489</v>
       </c>
+      <c r="H819" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I819" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="820" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E820" s="7">
         <v>6</v>
       </c>
@@ -16064,11 +16427,14 @@
       <c r="G820" s="7" t="s">
         <v>515</v>
       </c>
+      <c r="H820" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I820" s="7" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="821" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E821" s="7">
         <v>7</v>
       </c>
@@ -16078,11 +16444,14 @@
       <c r="G821" s="7" t="s">
         <v>504</v>
       </c>
+      <c r="H821" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I821" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="822" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E822" s="7">
         <v>8</v>
       </c>
@@ -16092,8 +16461,11 @@
       <c r="G822" s="7" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="823" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H822" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E823" s="7">
         <v>9</v>
       </c>
@@ -16103,11 +16475,20 @@
       <c r="G823" s="7" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H823" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="K823" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L823" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A824" s="19"/>
     </row>
-    <row r="825" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A825" s="19" t="s">
         <v>524</v>
       </c>
@@ -16127,7 +16508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="826" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E826" s="7">
         <v>1</v>
       </c>
@@ -16137,8 +16518,11 @@
       <c r="G826" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="827" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H826" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E827" s="7">
         <v>2</v>
       </c>
@@ -16148,8 +16532,11 @@
       <c r="G827" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="828" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H827" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E828" s="7">
         <v>3</v>
       </c>
@@ -16159,11 +16546,14 @@
       <c r="G828" s="7" t="s">
         <v>466</v>
       </c>
+      <c r="H828" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I828" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="829" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E829" s="7">
         <v>4</v>
       </c>
@@ -16173,8 +16563,11 @@
       <c r="G829" s="7" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="830" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H829" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E830" s="7">
         <v>5</v>
       </c>
@@ -16184,11 +16577,14 @@
       <c r="G830" s="7" t="s">
         <v>489</v>
       </c>
+      <c r="H830" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I830" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="831" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E831" s="7">
         <v>6</v>
       </c>
@@ -16198,11 +16594,14 @@
       <c r="G831" s="7" t="s">
         <v>515</v>
       </c>
+      <c r="H831" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I831" s="7" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="832" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E832" s="7">
         <v>7</v>
       </c>
@@ -16212,11 +16611,14 @@
       <c r="G832" s="7" t="s">
         <v>504</v>
       </c>
+      <c r="H832" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I832" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="833" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E833" s="7">
         <v>8</v>
       </c>
@@ -16226,8 +16628,11 @@
       <c r="G833" s="7" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="834" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H833" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="834" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E834" s="7">
         <v>9</v>
       </c>
@@ -16237,11 +16642,20 @@
       <c r="G834" s="7" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H834" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="K834" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L834" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="835" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A835" s="19"/>
     </row>
-    <row r="836" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A836" s="19" t="s">
         <v>539</v>
       </c>
@@ -16261,7 +16675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="837" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E837" s="7">
         <v>1</v>
       </c>
@@ -16271,8 +16685,11 @@
       <c r="G837" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="838" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H837" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="838" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E838" s="7">
         <v>2</v>
       </c>
@@ -16282,8 +16699,11 @@
       <c r="G838" s="7" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="839" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H838" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="839" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E839" s="7">
         <v>3</v>
       </c>
@@ -16293,8 +16713,11 @@
       <c r="G839" s="7" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="840" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H839" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="840" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E840" s="7">
         <v>4</v>
       </c>
@@ -16304,8 +16727,17 @@
       <c r="G840" s="7" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="841" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H840" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="K840" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L840" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="841" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E841" s="7">
         <v>5</v>
       </c>
@@ -16316,11 +16748,11 @@
         <v>532</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A842" s="19"/>
     </row>
-    <row r="843" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A843" s="19" t="s">
+    <row r="843" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A843" s="35" t="s">
         <v>543</v>
       </c>
       <c r="B843" s="19" t="s">
@@ -16338,8 +16770,14 @@
       <c r="I843" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="844" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="K843" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L843" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="844" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E844" s="7">
         <v>1</v>
       </c>
@@ -16350,7 +16788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="845" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E845" s="7">
         <v>2</v>
       </c>
@@ -16361,7 +16799,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="846" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E846" s="7">
         <v>3</v>
       </c>
@@ -16372,7 +16810,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="847" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E847" s="7">
         <v>4</v>
       </c>
@@ -16383,7 +16821,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="848" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E848" s="7">
         <v>5</v>
       </c>
@@ -16423,7 +16861,7 @@
       <c r="A851" s="19"/>
     </row>
     <row r="852" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A852" s="19" t="s">
+      <c r="A852" s="34" t="s">
         <v>544</v>
       </c>
       <c r="B852" s="19" t="s">
@@ -16526,7 +16964,7 @@
       <c r="A860" s="19"/>
     </row>
     <row r="861" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A861" s="19" t="s">
+      <c r="A861" s="34" t="s">
         <v>550</v>
       </c>
       <c r="B861" s="19" t="s">
@@ -16629,7 +17067,7 @@
       <c r="A869" s="19"/>
     </row>
     <row r="870" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A870" s="19" t="s">
+      <c r="A870" s="34" t="s">
         <v>555</v>
       </c>
       <c r="B870" s="19" t="s">
@@ -16732,7 +17170,7 @@
       <c r="A878" s="19"/>
     </row>
     <row r="879" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A879" s="19" t="s">
+      <c r="A879" s="34" t="s">
         <v>567</v>
       </c>
       <c r="B879" s="19" t="s">
@@ -16835,7 +17273,7 @@
       <c r="A887" s="19"/>
     </row>
     <row r="888" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A888" s="19" t="s">
+      <c r="A888" s="35" t="s">
         <v>568</v>
       </c>
       <c r="B888" s="19" t="s">
@@ -16948,10 +17386,10 @@
         <v>566</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A897" s="19"/>
     </row>
-    <row r="898" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A898" s="19" t="s">
         <v>579</v>
       </c>
@@ -16971,7 +17409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="899" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E899" s="7">
         <v>1</v>
       </c>
@@ -16981,8 +17419,11 @@
       <c r="G899" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="900" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H899" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="900" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E900" s="7">
         <v>2</v>
       </c>
@@ -16992,8 +17433,11 @@
       <c r="G900" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="901" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H900" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="901" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E901" s="7">
         <v>3</v>
       </c>
@@ -17003,8 +17447,11 @@
       <c r="G901" s="7" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="902" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H901" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="902" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E902" s="7">
         <v>4</v>
       </c>
@@ -17014,11 +17461,14 @@
       <c r="G902" s="7" t="s">
         <v>575</v>
       </c>
+      <c r="H902" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I902" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="903" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E903" s="7">
         <v>5</v>
       </c>
@@ -17028,11 +17478,20 @@
       <c r="G903" s="7" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H903" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K903" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L903" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="904" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A904" s="19"/>
     </row>
-    <row r="905" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A905" s="19" t="s">
         <v>580</v>
       </c>
@@ -17052,7 +17511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="906" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E906" s="7">
         <v>1</v>
       </c>
@@ -17062,8 +17521,11 @@
       <c r="G906" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="907" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H906" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="907" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E907" s="7">
         <v>2</v>
       </c>
@@ -17073,8 +17535,11 @@
       <c r="G907" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="908" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H907" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="908" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E908" s="7">
         <v>3</v>
       </c>
@@ -17084,8 +17549,11 @@
       <c r="G908" s="7" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="909" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H908" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="909" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E909" s="7">
         <v>4</v>
       </c>
@@ -17095,11 +17563,14 @@
       <c r="G909" s="7" t="s">
         <v>351</v>
       </c>
+      <c r="H909" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I909" s="7" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="910" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E910" s="7">
         <v>5</v>
       </c>
@@ -17109,11 +17580,20 @@
       <c r="G910" s="7" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H910" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K910" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L910" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="911" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A911" s="19"/>
     </row>
-    <row r="912" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A912" s="19" t="s">
         <v>590</v>
       </c>
@@ -17133,7 +17613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="913" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E913" s="7">
         <v>1</v>
       </c>
@@ -17143,8 +17623,11 @@
       <c r="G913" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="914" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H913" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="914" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E914" s="7">
         <v>2</v>
       </c>
@@ -17154,8 +17637,11 @@
       <c r="G914" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="915" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H914" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="915" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E915" s="7">
         <v>3</v>
       </c>
@@ -17165,8 +17651,11 @@
       <c r="G915" s="7" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="916" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H915" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="916" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E916" s="7">
         <v>4</v>
       </c>
@@ -17176,11 +17665,14 @@
       <c r="G916" s="7" t="s">
         <v>585</v>
       </c>
+      <c r="H916" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="I916" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="917" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E917" s="7">
         <v>5</v>
       </c>
@@ -17190,11 +17682,20 @@
       <c r="G917" s="7" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H917" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K917" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="L917" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="918" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A918" s="19"/>
     </row>
-    <row r="919" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A919" s="19" t="s">
         <v>596</v>
       </c>
@@ -17214,7 +17715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="920" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E920" s="7">
         <v>1</v>
       </c>
@@ -17225,7 +17726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="921" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E921" s="7">
         <v>2</v>
       </c>
@@ -17236,7 +17737,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="922" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E922" s="7">
         <v>3</v>
       </c>
@@ -17247,7 +17748,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="923" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E923" s="7">
         <v>4</v>
       </c>
@@ -17261,7 +17762,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="924" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E924" s="7">
         <v>5</v>
       </c>
@@ -17272,7 +17773,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="925" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E925" s="7">
         <v>6</v>
       </c>
@@ -17283,7 +17784,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="926" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E926" s="7">
         <v>7</v>
       </c>
@@ -17294,10 +17795,10 @@
         <v>595</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A927" s="19"/>
     </row>
-    <row r="928" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A928" s="19" t="s">
         <v>610</v>
       </c>
@@ -20551,7 +21052,7 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1062:C1063 C1076:C1077 C1083:C1084 C1091:C1092 C1100:C1101 C1110:C1111 C1120:C1121 C1133:C1134 C1140:C1141 C1148:C1149 C1157:C1158 C1164:C1165 C1171:C1172 C1181:C1182 C1188:C1189 C1196:C1197 C1206:C1207 C701:C708 K502 C660:C665 C669:C674 C680:C685 C691:C698 C711:C712 C717:C718 C723:C724 C729:C730 C735:C736 C741:C742 C747:C748 C753:C754 C760:C761 C767:C768 C776:C777 C785:C786 C794:C795 C803:C804 C814:C815 C825:C826 C836:C837 C843:C844 C852:C853 C861:C862 C870:C871 C879:C880 C888:C889 C898:C899 C905:C906 C912:C913 C919:C920 C928:C929 C937:C938 C946:C947 C955:C956 C964:C965 C973:C974 C982:C983 C991:C992 C999:C1000 C1007:C1008 C1016:C1017 C1052:C1053 C1042:C1043 C1032:C1033 C1024:C1025 C1069:C1070 K2:K24 K39:K64 C95:C109 C79:C93 C69:C77 C2:C64 K26:K37 K69:K78 K80:K112 K114:K126 J345:J352 K128:K159 K161:K344 K353:K480 K482:K486 K493 K513 K520 C111:C656 K526 K533 K543" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1062:C1063 C1076:C1077 C1083:C1084 C1091:C1092 C1100:C1101 C1110:C1111 C1120:C1121 C1133:C1134 C1140:C1141 C1148:C1149 C1157:C1158 C1164:C1165 C1171:C1172 C1181:C1182 C1188:C1189 C1196:C1197 C1206:C1207 C701:C708 K502 C660:C665 C669:C674 C680:C685 C691:C698 C711:C712 C717:C718 C723:C724 C729:C730 C735:C736 C741:C742 C747:C748 C753:C754 C760:C761 C767:C768 C776:C777 C785:C786 C794:C795 C803:C804 C814:C815 C825:C826 C836:C837 C843:C844 C852:C853 C861:C862 C870:C871 C879:C880 C888:C889 C898:C899 C905:C906 C912:C913 C919:C920 C928:C929 C937:C938 C946:C947 C955:C956 C964:C965 C973:C974 C982:C983 C991:C992 C999:C1000 C1007:C1008 C1016:C1017 C1052:C1053 C1042:C1043 C1032:C1033 C1024:C1025 C1069:C1070 K2:K24 K39:K64 C95:C109 C79:C93 C69:C77 C2:C64 K26:K37 K69:K78 K80:K112 K114:K126 J345:J352 K128:K159 K161:K344 K353:K480 K482:K486 K493 K513 K520 C111:C656 K526 K533 K543 K715 K721 K727 K733 K739 K745 K751 K758 K765 K774 K783 K792 K801 K812 K823 K834 K840 K843 K545 K903 K910 K917" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1062 B1069 B1076 B1083 B1091 B1100 B1110 B1120 B1133 B1140 B1148 B1157 B1164 B1171 B1181 B1188 B1196 B1206 B363 B366 B374 B378 B405 B400 B411 B431:B432 B422 B390 B416 B444 B470:B471 B457 B485:B486 B382 B359 B371 B512 B520 B515 B522 B533 B537 B545 B542 B554 B569:B570 B562 B584:B585 B591:B592 B600 B578 B612 B614 B623:B624 B632 B641 B651 B660 B669 B680 B691 B701 B495 B504 B528 B604 B711 B717 B723 B729 B735 B741 B747 B753 B760 B767 B776 B785 B794 B803 B814 B825 B836 B843 B852 B861 B870 B879 B888 B898 B905 B912 B919 B928 B937 B946 B955 B964 B973 B982 B991 B999 B1007 B1016 B1052 B1042 B1032 B1024 B320 B292 B271 B238 B251 B217 B199 B185 B175 B147 B129 B116 B121 B97 B69 B57 B27 B9 B155 B163:B164 B141 B134:B135 B102 B86 B74 B80:B81 B52 B47 B32 B24:B25 B14:B15 B41 B2 B192 B206:B207 B228 B261 B281:B282 B304:B305 B332 B345:B346" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -20563,7 +21064,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L353:L503 L114:L126 L80:L112 L39:L78 L26:L37 L2:L24 K345:K352 L128:L159 L161:L344 L505:L733" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K680:K688 K505:K512 K503 K487:K492 K494:K501 K514:K519 K521:K525 K527:K532 K534:K542 K544:K677" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K680:K688 K505:K512 K503 K487:K492 K494:K501 K514:K519 K521:K525 K527:K532 K534:K542 K544 K546:K677" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K65:K68 C110 C94 C78 C65:C68" xr:uid="{00000000-0002-0000-0000-000005000000}">

--- a/Test Execution/Nithya/Test Case- Lab Result.xlsx
+++ b/Test Execution/Nithya/Test Case- Lab Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Nithya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0C730D-7A3A-4426-B2A2-03E9135C80DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F3131B-B0A5-4649-8D19-C9C99349D9B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="928">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3018,9 +3018,6 @@
     <t>Content mismatch</t>
   </si>
   <si>
-    <t>Not in page</t>
-  </si>
-  <si>
     <t xml:space="preserve">doubt </t>
   </si>
   <si>
@@ -3082,6 +3079,33 @@
   </si>
   <si>
     <t>Select Test for retesting from the table&gt;&gt;Enter data in Corrective Action(Mandatory)</t>
+  </si>
+  <si>
+    <t>Saved data is not view in dashboard</t>
+  </si>
+  <si>
+    <t>Medical record button is missing</t>
+  </si>
+  <si>
+    <t>EQ1-I758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab result is missing.So unable to proceed </t>
+  </si>
+  <si>
+    <t>Radiology results is missing.</t>
+  </si>
+  <si>
+    <t>Prev bill vew is missing.So unable to proceed further steps.</t>
+  </si>
+  <si>
+    <t>Search function is not working</t>
+  </si>
+  <si>
+    <t>Unable to view the form. Report Name drop down is empty.</t>
+  </si>
+  <si>
+    <t>Report Name drop down is empty</t>
   </si>
 </sst>
 </file>
@@ -3204,7 +3228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3297,9 +3321,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3631,9 +3652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F631" sqref="F631"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J533" sqref="J533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,14 +3714,14 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="34"/>
+      <c r="R1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="36"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -3740,7 +3761,7 @@
       </c>
       <c r="S2" s="14">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -3770,14 +3791,14 @@
       </c>
       <c r="P3" s="12">
         <f>COUNTA(L:L)-1</f>
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="14">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -3834,7 +3855,7 @@
       </c>
       <c r="S5" s="14">
         <f>COUNTA(M:M)-1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -7202,7 +7223,7 @@
         <v>889</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K214" s="19" t="s">
         <v>885</v>
@@ -9279,7 +9300,7 @@
         <v>73</v>
       </c>
       <c r="J344" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K344" s="19" t="s">
         <v>885</v>
@@ -10397,7 +10418,7 @@
         <v>14</v>
       </c>
       <c r="M409" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -10913,7 +10934,7 @@
         <v>14</v>
       </c>
       <c r="M440" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="441" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -11162,7 +11183,7 @@
         <v>14</v>
       </c>
       <c r="M455" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
@@ -11306,7 +11327,7 @@
       </c>
       <c r="I464" s="6"/>
       <c r="J464" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K464" s="19" t="s">
         <v>885</v>
@@ -12199,7 +12220,7 @@
         <v>897</v>
       </c>
       <c r="J520" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K520" s="19" t="s">
         <v>885</v>
@@ -12311,7 +12332,7 @@
       <c r="L527" s="9"/>
     </row>
     <row r="528" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A528" s="32" t="s">
+      <c r="A528" s="19" t="s">
         <v>317</v>
       </c>
       <c r="B528" s="7" t="s">
@@ -12334,7 +12355,7 @@
     </row>
     <row r="529" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="B529" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E529" s="7">
         <v>1</v>
@@ -12412,10 +12433,7 @@
         <v>320</v>
       </c>
       <c r="H533" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="K533" s="19" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="L533" s="9"/>
     </row>
@@ -12429,10 +12447,13 @@
       <c r="G534" s="7" t="s">
         <v>322</v>
       </c>
+      <c r="H534" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="K534" s="9"/>
       <c r="L534" s="9"/>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E535" s="22">
         <v>7</v>
       </c>
@@ -12442,8 +12463,15 @@
       <c r="G535" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K535" s="9"/>
-      <c r="L535" s="9"/>
+      <c r="H535" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K535" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L535" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="19"/>
@@ -12562,7 +12590,7 @@
         <v>327</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K543" s="19" t="s">
         <v>885</v>
@@ -13823,7 +13851,7 @@
         <v>394</v>
       </c>
       <c r="H620" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K620" s="19" t="s">
         <v>885</v>
@@ -14263,10 +14291,10 @@
         <v>402</v>
       </c>
       <c r="H647" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J647" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K647" s="19" t="s">
         <v>885</v>
@@ -15085,7 +15113,7 @@
         <v>435</v>
       </c>
       <c r="H698" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K698" s="19" t="s">
         <v>885</v>
@@ -15475,7 +15503,7 @@
         <v>2</v>
       </c>
       <c r="F724" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G724" s="7" t="s">
         <v>443</v>
@@ -15701,7 +15729,7 @@
         <v>885</v>
       </c>
       <c r="L738" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.25">
@@ -15789,7 +15817,7 @@
         <v>885</v>
       </c>
       <c r="L744" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.25">
@@ -15877,7 +15905,7 @@
         <v>885</v>
       </c>
       <c r="L750" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.25">
@@ -15982,7 +16010,7 @@
         <v>885</v>
       </c>
       <c r="L757" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.25">
@@ -16087,7 +16115,7 @@
         <v>885</v>
       </c>
       <c r="L764" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.25">
@@ -16223,7 +16251,7 @@
         <v>885</v>
       </c>
       <c r="L773" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.25">
@@ -16359,7 +16387,7 @@
         <v>885</v>
       </c>
       <c r="L782" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.25">
@@ -16495,7 +16523,7 @@
         <v>885</v>
       </c>
       <c r="L791" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.25">
@@ -16631,7 +16659,7 @@
         <v>885</v>
       </c>
       <c r="L800" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
@@ -16792,7 +16820,7 @@
         <v>516</v>
       </c>
       <c r="H811" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K811" s="19" t="s">
         <v>885</v>
@@ -16801,7 +16829,7 @@
         <v>14</v>
       </c>
       <c r="M811" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
@@ -16962,10 +16990,10 @@
         <v>518</v>
       </c>
       <c r="H822" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J822" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K822" s="19" t="s">
         <v>885</v>
@@ -17132,10 +17160,10 @@
         <v>518</v>
       </c>
       <c r="H833" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J833" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K833" s="19" t="s">
         <v>885</v>
@@ -17220,7 +17248,7 @@
         <v>530</v>
       </c>
       <c r="H839" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K839" s="19" t="s">
         <v>885</v>
@@ -17263,7 +17291,7 @@
         <v>21</v>
       </c>
       <c r="K842" s="19"/>
-      <c r="L842" s="33"/>
+      <c r="L842" s="32"/>
     </row>
     <row r="843" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E843" s="7">
@@ -17368,7 +17396,7 @@
       <c r="K849" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L849" s="34" t="s">
+      <c r="L849" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17501,7 +17529,7 @@
       <c r="K858" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L858" s="34" t="s">
+      <c r="L858" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17631,7 +17659,7 @@
       <c r="K867" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L867" s="34" t="s">
+      <c r="L867" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17761,7 +17789,7 @@
       <c r="K876" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L876" s="34" t="s">
+      <c r="L876" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17891,7 +17919,7 @@
       <c r="K885" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L885" s="34" t="s">
+      <c r="L885" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18038,7 +18066,7 @@
       <c r="K895" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L895" s="34" t="s">
+      <c r="L895" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18140,7 +18168,7 @@
       <c r="K902" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L902" s="34" t="s">
+      <c r="L902" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18242,7 +18270,7 @@
       <c r="K909" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L909" s="34" t="s">
+      <c r="L909" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18344,7 +18372,7 @@
       <c r="K916" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L916" s="34" t="s">
+      <c r="L916" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18469,15 +18497,15 @@
         <v>595</v>
       </c>
       <c r="H925" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="J925" s="6" t="s">
         <v>907</v>
-      </c>
-      <c r="J925" s="6" t="s">
-        <v>908</v>
       </c>
       <c r="K925" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L925" s="34" t="s">
+      <c r="L925" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18574,12 +18602,12 @@
         <v>605</v>
       </c>
       <c r="H932" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K932" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L932" s="34" t="s">
+      <c r="L932" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18698,12 +18726,12 @@
         <v>613</v>
       </c>
       <c r="H941" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K941" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L941" s="34" t="s">
+      <c r="L941" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18856,7 +18884,7 @@
       <c r="K952" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L952" s="34" t="s">
+      <c r="L952" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18986,7 +19014,7 @@
       <c r="K961" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L961" s="34" t="s">
+      <c r="L961" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19116,7 +19144,7 @@
       <c r="K970" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L970" s="34" t="s">
+      <c r="L970" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19247,7 +19275,7 @@
       <c r="K979" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L979" s="34" t="s">
+      <c r="L979" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19366,7 +19394,7 @@
       <c r="K987" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L987" s="34" t="s">
+      <c r="L987" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19485,7 +19513,7 @@
       <c r="K996" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L996" s="34" t="s">
+      <c r="L996" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19604,7 +19632,7 @@
       <c r="K1004" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L1004" s="34" t="s">
+      <c r="L1004" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19737,7 +19765,7 @@
       <c r="K1013" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L1013" s="34" t="s">
+      <c r="L1013" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19794,7 +19822,7 @@
         <v>3</v>
       </c>
       <c r="F1018" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G1018" s="7" t="s">
         <v>671</v>
@@ -19847,7 +19875,7 @@
       <c r="K1021" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L1021" s="34" t="s">
+      <c r="L1021" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19907,7 +19935,7 @@
         <v>3</v>
       </c>
       <c r="F1026" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G1026" s="7" t="s">
         <v>671</v>
@@ -19960,7 +19988,7 @@
       <c r="K1029" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L1029" s="34" t="s">
+      <c r="L1029" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -20104,7 +20132,7 @@
       <c r="K1039" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L1039" s="34" t="s">
+      <c r="L1039" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -20248,7 +20276,7 @@
       <c r="K1049" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L1049" s="34" t="s">
+      <c r="L1049" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -20392,7 +20420,7 @@
       <c r="K1059" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L1059" s="34" t="s">
+      <c r="L1059" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -20494,7 +20522,7 @@
       <c r="K1066" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="L1066" s="34" t="s">
+      <c r="L1066" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -20531,6 +20559,9 @@
       <c r="G1069" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="H1069" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="1070" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1070" s="7">
@@ -20542,6 +20573,9 @@
       <c r="G1070" s="7" t="s">
         <v>704</v>
       </c>
+      <c r="H1070" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="1071" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1071" s="7">
@@ -20553,6 +20587,9 @@
       <c r="G1071" s="7" t="s">
         <v>351</v>
       </c>
+      <c r="H1071" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1071" s="7" t="s">
         <v>604</v>
       </c>
@@ -20567,8 +20604,11 @@
       <c r="G1072" s="7" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1072" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1073" s="7">
         <v>5</v>
       </c>
@@ -20578,11 +20618,20 @@
       <c r="G1073" s="7" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1073" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1073" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1073" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1074" s="19"/>
     </row>
-    <row r="1075" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1075" s="19" t="s">
         <v>710</v>
       </c>
@@ -20602,7 +20651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1076" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1076" s="7">
         <v>1</v>
       </c>
@@ -20612,8 +20661,11 @@
       <c r="G1076" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1077" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1076" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1077" s="7">
         <v>2</v>
       </c>
@@ -20623,8 +20675,11 @@
       <c r="G1077" s="7" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="1078" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1077" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1078" s="7">
         <v>3</v>
       </c>
@@ -20634,8 +20689,11 @@
       <c r="G1078" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="1079" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1078" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1079" s="7">
         <v>4</v>
       </c>
@@ -20645,8 +20703,11 @@
       <c r="G1079" s="7" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1079" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1080" s="7">
         <v>5</v>
       </c>
@@ -20656,11 +20717,20 @@
       <c r="G1080" s="7" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1080" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1080" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1080" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1081" s="19"/>
     </row>
-    <row r="1082" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1082" s="19" t="s">
         <v>719</v>
       </c>
@@ -20680,7 +20750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1083" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1083" s="7">
         <v>1</v>
       </c>
@@ -20690,8 +20760,11 @@
       <c r="G1083" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1084" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1083" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1084" s="7">
         <v>2</v>
       </c>
@@ -20701,8 +20774,11 @@
       <c r="G1084" s="7" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="1085" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1084" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1085" s="7">
         <v>3</v>
       </c>
@@ -20712,8 +20788,11 @@
       <c r="G1085" s="7" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="1086" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1085" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1086" s="7">
         <v>4</v>
       </c>
@@ -20723,8 +20802,11 @@
       <c r="G1086" s="7" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="1087" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1086" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1087" s="7">
         <v>5</v>
       </c>
@@ -20734,11 +20816,20 @@
       <c r="G1087" s="7" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1087" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1087" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1087" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1089" s="19"/>
     </row>
-    <row r="1090" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1090" s="19" t="s">
         <v>735</v>
       </c>
@@ -20758,7 +20849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1091" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1091" s="7">
         <v>1</v>
       </c>
@@ -20768,8 +20859,11 @@
       <c r="G1091" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1092" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1091" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1092" s="7">
         <v>2</v>
       </c>
@@ -20779,8 +20873,11 @@
       <c r="G1092" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="1093" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1092" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1093" s="7">
         <v>3</v>
       </c>
@@ -20790,11 +20887,14 @@
       <c r="G1093" s="7" t="s">
         <v>723</v>
       </c>
+      <c r="H1093" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1093" s="7" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="1094" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E1094" s="7">
         <v>4</v>
       </c>
@@ -20804,11 +20904,20 @@
       <c r="G1094" s="7" t="s">
         <v>726</v>
       </c>
+      <c r="H1094" s="7" t="s">
+        <v>919</v>
+      </c>
       <c r="I1094" s="7" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="1095" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="K1094" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1094" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1095" s="7">
         <v>5</v>
       </c>
@@ -20822,7 +20931,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1096" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1096" s="7">
         <v>6</v>
       </c>
@@ -20833,7 +20942,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="1097" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1097" s="7">
         <v>7</v>
       </c>
@@ -20844,10 +20953,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1098" s="19"/>
     </row>
-    <row r="1099" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1099" s="19" t="s">
         <v>740</v>
       </c>
@@ -20867,7 +20976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1100" s="7">
         <v>1</v>
       </c>
@@ -20877,8 +20986,11 @@
       <c r="G1100" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1100" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1101" s="7">
         <v>2</v>
       </c>
@@ -20888,8 +21000,11 @@
       <c r="G1101" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="1102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1101" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1102" s="7">
         <v>3</v>
       </c>
@@ -20899,11 +21014,14 @@
       <c r="G1102" s="7" t="s">
         <v>723</v>
       </c>
+      <c r="H1102" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1102" s="7" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="1103" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E1103" s="7">
         <v>4</v>
       </c>
@@ -20913,11 +21031,20 @@
       <c r="G1103" s="7" t="s">
         <v>726</v>
       </c>
+      <c r="H1103" s="7" t="s">
+        <v>919</v>
+      </c>
       <c r="I1103" s="7" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="1104" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="K1103" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1103" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1104" s="7">
         <v>5</v>
       </c>
@@ -20931,7 +21058,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1105" s="7">
         <v>6</v>
       </c>
@@ -20942,7 +21069,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="1106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1106" s="7">
         <v>7</v>
       </c>
@@ -20953,7 +21080,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="1107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1107" s="7">
         <v>8</v>
       </c>
@@ -20964,10 +21091,10 @@
         <v>739</v>
       </c>
     </row>
-    <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1108" s="19"/>
     </row>
-    <row r="1109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1109" s="19" t="s">
         <v>757</v>
       </c>
@@ -20987,7 +21114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1110" s="7">
         <v>1</v>
       </c>
@@ -20997,8 +21124,11 @@
       <c r="G1110" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1110" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1111" s="7">
         <v>2</v>
       </c>
@@ -21008,8 +21138,11 @@
       <c r="G1111" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="1112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1111" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1112" s="7">
         <v>3</v>
       </c>
@@ -21019,11 +21152,14 @@
       <c r="G1112" s="7" t="s">
         <v>723</v>
       </c>
+      <c r="H1112" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1112" s="7" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="1113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E1113" s="7">
         <v>4</v>
       </c>
@@ -21033,11 +21169,20 @@
       <c r="G1113" s="7" t="s">
         <v>726</v>
       </c>
+      <c r="H1113" s="7" t="s">
+        <v>919</v>
+      </c>
       <c r="I1113" s="7" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="1114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="K1113" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1113" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1114" s="7">
         <v>5</v>
       </c>
@@ -21051,7 +21196,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1115" s="7">
         <v>6</v>
       </c>
@@ -21062,7 +21207,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="1116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1116" s="7">
         <v>7</v>
       </c>
@@ -21073,7 +21218,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="1117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1117" s="7">
         <v>8</v>
       </c>
@@ -21084,10 +21229,10 @@
         <v>739</v>
       </c>
     </row>
-    <row r="1118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1118" s="19"/>
     </row>
-    <row r="1119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1119" s="19" t="s">
         <v>758</v>
       </c>
@@ -21107,7 +21252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1120" s="7">
         <v>1</v>
       </c>
@@ -21117,8 +21262,11 @@
       <c r="G1120" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1120" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1121" s="7">
         <v>2</v>
       </c>
@@ -21128,8 +21276,11 @@
       <c r="G1121" s="7" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="1122" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="H1121" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="E1122" s="7">
         <v>3</v>
       </c>
@@ -21139,8 +21290,11 @@
       <c r="G1122" s="7" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="1123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1122" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1123" s="7">
         <v>4</v>
       </c>
@@ -21150,8 +21304,11 @@
       <c r="G1123" s="7" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="1124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1123" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1124" s="7">
         <v>5</v>
       </c>
@@ -21161,8 +21318,11 @@
       <c r="G1124" s="7" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="1125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1124" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1125" s="7">
         <v>6</v>
       </c>
@@ -21172,8 +21332,11 @@
       <c r="G1125" s="7" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="1126" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H1125" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E1126" s="7">
         <v>7</v>
       </c>
@@ -21183,8 +21346,11 @@
       <c r="G1126" s="7" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="1127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1126" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1127" s="7">
         <v>8</v>
       </c>
@@ -21194,8 +21360,11 @@
       <c r="G1127" s="7" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="1128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H1127" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E1128" s="7">
         <v>9</v>
       </c>
@@ -21205,8 +21374,11 @@
       <c r="G1128" s="7" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="1129" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H1128" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E1129" s="7">
         <v>10</v>
       </c>
@@ -21216,8 +21388,11 @@
       <c r="G1129" s="7" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1129" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1130" s="7">
         <v>11</v>
       </c>
@@ -21227,11 +21402,20 @@
       <c r="G1130" s="7" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1130" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1130" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1130" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1131" s="19"/>
     </row>
-    <row r="1132" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1132" s="19" t="s">
         <v>766</v>
       </c>
@@ -21251,7 +21435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1133" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1133" s="7">
         <v>1</v>
       </c>
@@ -21261,8 +21445,11 @@
       <c r="G1133" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1133" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1134" s="7">
         <v>2</v>
       </c>
@@ -21272,8 +21459,11 @@
       <c r="G1134" s="7" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="1135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="H1134" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E1135" s="7">
         <v>3</v>
       </c>
@@ -21283,11 +21473,14 @@
       <c r="G1135" s="7" t="s">
         <v>763</v>
       </c>
+      <c r="H1135" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1135" s="7" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1136" s="7">
         <v>4</v>
       </c>
@@ -21297,8 +21490,11 @@
       <c r="G1136" s="7" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="1137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1136" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E1137" s="7">
         <v>5</v>
       </c>
@@ -21308,11 +21504,20 @@
       <c r="G1137" s="7" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="1138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1137" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1137" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1137" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1138" s="19"/>
     </row>
-    <row r="1139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1139" s="19" t="s">
         <v>777</v>
       </c>
@@ -21332,7 +21537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1140" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="E1140" s="7">
         <v>1</v>
       </c>
@@ -21342,8 +21547,11 @@
       <c r="G1140" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1140" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E1141" s="7">
         <v>2</v>
       </c>
@@ -21353,8 +21561,11 @@
       <c r="G1141" s="7" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="1142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1141" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E1142" s="7">
         <v>3</v>
       </c>
@@ -21364,8 +21575,11 @@
       <c r="G1142" s="7" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="1143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H1142" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E1143" s="7">
         <v>4</v>
       </c>
@@ -21375,11 +21589,14 @@
       <c r="G1143" s="7" t="s">
         <v>771</v>
       </c>
+      <c r="H1143" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1143" s="7" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="1144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E1144" s="7">
         <v>5</v>
       </c>
@@ -21389,8 +21606,11 @@
       <c r="G1144" s="7" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1144" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E1145" s="7">
         <v>6</v>
       </c>
@@ -21400,11 +21620,20 @@
       <c r="G1145" s="7" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="1146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1145" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1145" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1145" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1146" s="19"/>
     </row>
-    <row r="1147" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1147" s="19" t="s">
         <v>789</v>
       </c>
@@ -21424,7 +21653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1148" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="E1148" s="7">
         <v>1</v>
       </c>
@@ -21434,8 +21663,11 @@
       <c r="G1148" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1148" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E1149" s="7">
         <v>2</v>
       </c>
@@ -21445,8 +21677,11 @@
       <c r="G1149" s="7" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="1150" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H1149" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="E1150" s="7">
         <v>3</v>
       </c>
@@ -21456,11 +21691,14 @@
       <c r="G1150" s="7" t="s">
         <v>782</v>
       </c>
+      <c r="H1150" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1150" s="7" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="1151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E1151" s="7">
         <v>4</v>
       </c>
@@ -21470,8 +21708,20 @@
       <c r="G1151" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="1152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H1151" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="K1151" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1151" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1151" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="E1152" s="7">
         <v>5</v>
       </c>
@@ -21485,7 +21735,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="1153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1153" s="7">
         <v>6</v>
       </c>
@@ -21496,7 +21746,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1154" s="7">
         <v>7</v>
       </c>
@@ -21507,10 +21757,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="1155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1155" s="19"/>
     </row>
-    <row r="1156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1156" s="19" t="s">
         <v>794</v>
       </c>
@@ -21530,7 +21780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1157" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1157" s="7">
         <v>1</v>
       </c>
@@ -21540,8 +21790,11 @@
       <c r="G1157" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1157" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1158" s="7">
         <v>2</v>
       </c>
@@ -21551,8 +21804,11 @@
       <c r="G1158" s="7" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="1159" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H1158" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E1159" s="7">
         <v>3</v>
       </c>
@@ -21562,11 +21818,14 @@
       <c r="G1159" s="7" t="s">
         <v>782</v>
       </c>
+      <c r="H1159" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1159" s="7" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="1160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1160" s="7">
         <v>4</v>
       </c>
@@ -21576,8 +21835,20 @@
       <c r="G1160" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="1161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1160" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="J1160" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="K1160" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1160" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1161" s="19"/>
       <c r="E1161" s="7">
         <v>5</v>
@@ -21589,10 +21860,10 @@
         <v>792</v>
       </c>
     </row>
-    <row r="1162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1162" s="19"/>
     </row>
-    <row r="1163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1163" s="19" t="s">
         <v>797</v>
       </c>
@@ -21612,7 +21883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1164" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1164" s="7">
         <v>1</v>
       </c>
@@ -21622,8 +21893,11 @@
       <c r="G1164" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1164" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1165" s="7">
         <v>2</v>
       </c>
@@ -21633,8 +21907,11 @@
       <c r="G1165" s="7" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="1166" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H1165" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E1166" s="7">
         <v>3</v>
       </c>
@@ -21644,11 +21921,14 @@
       <c r="G1166" s="7" t="s">
         <v>782</v>
       </c>
+      <c r="H1166" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1166" s="7" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="1167" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1167" s="7">
         <v>4</v>
       </c>
@@ -21658,8 +21938,20 @@
       <c r="G1167" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="1168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1167" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="J1167" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="K1167" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1167" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1168" s="7">
         <v>5</v>
       </c>
@@ -21670,10 +21962,10 @@
         <v>792</v>
       </c>
     </row>
-    <row r="1169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1169" s="19"/>
     </row>
-    <row r="1170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1170" s="19" t="s">
         <v>805</v>
       </c>
@@ -21693,7 +21985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1171" s="7">
         <v>1</v>
       </c>
@@ -21703,8 +21995,11 @@
       <c r="G1171" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1171" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1172" s="7">
         <v>2</v>
       </c>
@@ -21714,8 +22009,11 @@
       <c r="G1172" s="7" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="1173" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H1172" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E1173" s="7">
         <v>3</v>
       </c>
@@ -21725,11 +22023,14 @@
       <c r="G1173" s="7" t="s">
         <v>782</v>
       </c>
+      <c r="H1173" s="7" t="s">
+        <v>860</v>
+      </c>
       <c r="I1173" s="7" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="1174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1174" s="7">
         <v>4</v>
       </c>
@@ -21739,8 +22040,20 @@
       <c r="G1174" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="1175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1174" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="J1174" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="K1174" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1174" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1175" s="7">
         <v>5</v>
       </c>
@@ -21751,7 +22064,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="1176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1176" s="7">
         <v>6</v>
       </c>
@@ -21762,7 +22075,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="1177" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1177" s="7">
         <v>7</v>
       </c>
@@ -21773,7 +22086,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1178" s="7">
         <v>8</v>
       </c>
@@ -21784,10 +22097,10 @@
         <v>804</v>
       </c>
     </row>
-    <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1179" s="19"/>
     </row>
-    <row r="1180" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1180" s="19" t="s">
         <v>812</v>
       </c>
@@ -21807,7 +22120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1181" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1181" s="7">
         <v>1</v>
       </c>
@@ -21817,8 +22130,11 @@
       <c r="G1181" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1181" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1182" s="7">
         <v>2</v>
       </c>
@@ -21828,8 +22144,17 @@
       <c r="G1182" s="7" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="1183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1182" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="K1182" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1182" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1183" s="7">
         <v>3</v>
       </c>
@@ -21840,7 +22165,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="1184" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1184" s="7">
         <v>4</v>
       </c>
@@ -21851,7 +22176,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="1185" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E1185" s="7">
         <v>5</v>
       </c>
@@ -21862,10 +22187,10 @@
         <v>811</v>
       </c>
     </row>
-    <row r="1186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1186" s="19"/>
     </row>
-    <row r="1187" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1187" s="19" t="s">
         <v>823</v>
       </c>
@@ -21885,7 +22210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1188" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1188" s="7">
         <v>1</v>
       </c>
@@ -21895,8 +22220,11 @@
       <c r="G1188" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1188" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1189" s="7">
         <v>2</v>
       </c>
@@ -21906,8 +22234,11 @@
       <c r="G1189" s="7" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="1190" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="H1189" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E1190" s="7">
         <v>3</v>
       </c>
@@ -21917,8 +22248,11 @@
       <c r="G1190" s="7" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="1191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1190" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1191" s="7">
         <v>4</v>
       </c>
@@ -21928,8 +22262,11 @@
       <c r="G1191" s="7" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1191" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1192" s="7">
         <v>5</v>
       </c>
@@ -21939,8 +22276,17 @@
       <c r="G1192" s="7" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="1193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1192" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="K1192" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1192" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1193" s="7">
         <v>6</v>
       </c>
@@ -21951,10 +22297,10 @@
         <v>822</v>
       </c>
     </row>
-    <row r="1194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1194" s="19"/>
     </row>
-    <row r="1195" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1195" s="19" t="s">
         <v>838</v>
       </c>
@@ -21974,7 +22320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1196" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1196" s="7">
         <v>1</v>
       </c>
@@ -21984,8 +22330,11 @@
       <c r="G1196" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1196" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1197" s="7">
         <v>2</v>
       </c>
@@ -21995,8 +22344,11 @@
       <c r="G1197" s="7" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="1198" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1197" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1198" s="7">
         <v>3</v>
       </c>
@@ -22006,8 +22358,11 @@
       <c r="G1198" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="1199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1198" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1199" s="7">
         <v>4</v>
       </c>
@@ -22017,8 +22372,17 @@
       <c r="G1199" s="7" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="1200" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1199" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="K1199" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1199" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E1200" s="7">
         <v>5</v>
       </c>
@@ -22029,7 +22393,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="1201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1201" s="7">
         <v>6</v>
       </c>
@@ -22040,7 +22404,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="1202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1202" s="7">
         <v>7</v>
       </c>
@@ -22051,7 +22415,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="1203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1203" s="7">
         <v>8</v>
       </c>
@@ -22062,10 +22426,10 @@
         <v>836</v>
       </c>
     </row>
-    <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1204" s="19"/>
     </row>
-    <row r="1205" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1205" s="19" t="s">
         <v>848</v>
       </c>
@@ -22085,7 +22449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1206" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E1206" s="7">
         <v>1</v>
       </c>
@@ -22095,8 +22459,11 @@
       <c r="G1206" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1206" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1207" s="7">
         <v>2</v>
       </c>
@@ -22106,8 +22473,11 @@
       <c r="G1207" s="7" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="1208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1207" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1208" s="7">
         <v>3</v>
       </c>
@@ -22117,8 +22487,11 @@
       <c r="G1208" s="7" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="1209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1208" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1209" s="7">
         <v>4</v>
       </c>
@@ -22128,8 +22501,11 @@
       <c r="G1209" s="7" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1209" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E1210" s="7">
         <v>5</v>
       </c>
@@ -22138,6 +22514,15 @@
       </c>
       <c r="G1210" s="7" t="s">
         <v>323</v>
+      </c>
+      <c r="H1210" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1210" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1210" s="33" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -22146,7 +22531,7 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1061:C1062 C1075:C1076 C1082:C1083 C1090:C1091 C1099:C1100 C1109:C1110 C1119:C1120 C1132:C1133 C1139:C1140 C1147:C1148 C1156:C1157 C1163:C1164 C1170:C1171 C1180:C1181 C1187:C1188 C1195:C1196 C1205:C1206 C700:C707 K502 C659:C664 C668:C673 C679:C684 C690:C697 C710:C711 C716:C717 C722:C723 C728:C729 C734:C735 C740:C741 C746:C747 C752:C753 C759:C760 C766:C767 C775:C776 C784:C785 C793:C794 C802:C803 C813:C814 C824:C825 C835:C836 C842:C843 C851:C852 C860:C861 C869:C870 C878:C879 C887:C888 C897:C898 C904:C905 C911:C912 C918:C919 C927:C928 C936:C937 C945:C946 C954:C955 C963:C964 C972:C973 C981:C982 C990:C991 C998:C999 C1006:C1007 C1015:C1016 C1051:C1052 C1041:C1042 C1031:C1032 C1023:C1024 C1068:C1069 K2:K24 K39:K64 C95:C109 C79:C93 C69:C77 C2:C64 K26:K37 K69:K78 K80:K112 K114:K126 J345:J352 K128:K159 K161:K344 K353:K480 K482:K486 K493 K513 K520 K526 K533 K543 K714 K720 K726 K732 K738 K744 K750 K757 K764 K773 K782 K791 K800 K811 K822 K833 K839 K842 K545 K902 K909 K916 K925 K932 K941 K952 K961 K552 K560 K568 K576 K583 C111:C655 K589 K601 K611 K620 K629 K638 K647 K657 K666 K677 K688 K698 K708 K849 K858 K867 K876 K885 K895 K970 K979 K987 K996 K1004 K1013 K1021 K1029 K1039 K1049 K1059 K1066" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1061:C1062 C1075:C1076 C1082:C1083 C1090:C1091 C1099:C1100 C1109:C1110 C1119:C1120 C1132:C1133 C1139:C1140 C1147:C1148 C1156:C1157 C1163:C1164 C1170:C1171 C1180:C1181 C1187:C1188 C1195:C1196 C1205:C1206 C700:C707 K502 C659:C664 C668:C673 C679:C684 C690:C697 C710:C711 C716:C717 C722:C723 C728:C729 C734:C735 C740:C741 C746:C747 C752:C753 C759:C760 C766:C767 C775:C776 C784:C785 C793:C794 C802:C803 C813:C814 C824:C825 C835:C836 C842:C843 C851:C852 C860:C861 C869:C870 C878:C879 C887:C888 C897:C898 C904:C905 C911:C912 C918:C919 C927:C928 C936:C937 C945:C946 C954:C955 C963:C964 C972:C973 C981:C982 C990:C991 C998:C999 C1006:C1007 C1015:C1016 C1051:C1052 C1041:C1042 C1031:C1032 C1023:C1024 C1068:C1069 K2:K24 K39:K64 C95:C109 C79:C93 C69:C77 C2:C64 K26:K37 K69:K78 K80:K112 K114:K126 J345:J352 K128:K159 K161:K344 K353:K480 K482:K486 K493 K513 K520 K526 K535 K543 K714 K720 K726 K732 K738 K744 K750 K757 K764 K773 K782 K791 K800 K811 K822 K833 K839 K842 K545 K902 K909 K916 K925 K932 K941 K952 K961 K552 K560 K568 K576 K583 C111:C655 K589 K601 K611 K620 K629 K638 K647 K657 K666 K677 K688 K698 K708 K849 K858 K867 K876 K885 K895 K970 K979 K987 K996 K1004 K1013 K1021 K1029 K1039 K1049 K1059 K1066 K1073 K1080 K1087 K1094 K1103 K1113 K1130 K1145 K1137 K1151 K1160 K1167 K1182 K1174 K1192 K1199 K1210" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1061 B1068 B1075 B1082 B1090 B1099 B1109 B1119 B1132 B1139 B1147 B1156 B1163 B1170 B1180 B1187 B1195 B1205 B363 B366 B374 B378 B405 B400 B411 B431:B432 B422 B390 B416 B444 B470:B471 B457 B485:B486 B382 B359 B371 B512 B520 B515 B522 B533 B537 B545 B542 B554 B569:B570 B562 B584:B585 B590:B591 B599 B578 B611 B613 B622:B623 B631 B640 B650 B659 B668 B679 B690 B700 B495 B504 B528 B603 B710 B716 B722 B728 B734 B740 B746 B752 B759 B766 B775 B784 B793 B802 B813 B824 B835 B842 B851 B860 B869 B878 B887 B897 B904 B911 B918 B927 B936 B945 B954 B963 B972 B981 B990 B998 B1006 B1015 B1051 B1041 B1031 B1023 B320 B292 B271 B238 B251 B217 B199 B185 B175 B147 B129 B116 B121 B97 B69 B57 B27 B9 B155 B163:B164 B141 B134:B135 B102 B86 B74 B80:B81 B52 B47 B32 B24:B25 B14:B15 B41 B2 B192 B206:B207 B228 B261 B281:B282 B304:B305 B332 B345:B346" xr:uid="{00000000-0002-0000-0000-000001000000}">

--- a/Test Execution/Nithya/Test Case- Lab Result.xlsx
+++ b/Test Execution/Nithya/Test Case- Lab Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Nithya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F3131B-B0A5-4649-8D19-C9C99349D9B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC8025A-29F4-47AE-98FA-C6148DF2E162}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="995">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3106,6 +3106,207 @@
   </si>
   <si>
     <t>Report Name drop down is empty</t>
+  </si>
+  <si>
+    <t>MED_LR_TC_131</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to list out the outside result by Patient #</t>
+  </si>
+  <si>
+    <t>Click on MENU&gt;&gt;Transaction&gt;&gt;Outside Result attach</t>
+  </si>
+  <si>
+    <t>Outside Result attach page should be displayed</t>
+  </si>
+  <si>
+    <t>Select the date picker</t>
+  </si>
+  <si>
+    <t>User should be able to select the date</t>
+  </si>
+  <si>
+    <t>Enter Patient #&gt;&gt;Click on Search</t>
+  </si>
+  <si>
+    <t>User should be able to enter the patient #. And Patient's outside search result should be listed.</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to list out the outside result by Bill #</t>
+  </si>
+  <si>
+    <t>Enter Bill #&gt;&gt;Click on Search</t>
+  </si>
+  <si>
+    <t>User should be able to enter the Bill #. And Patient's outside search result should be listed.</t>
+  </si>
+  <si>
+    <t>MED_LR_TC_132</t>
+  </si>
+  <si>
+    <t>MED_LR_TC_133</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to view attachment in outside result attach</t>
+  </si>
+  <si>
+    <t>Click on attach file</t>
+  </si>
+  <si>
+    <t>User should be able to attach files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on View Attached </t>
+  </si>
+  <si>
+    <t>Attached patient result list should be displayed</t>
+  </si>
+  <si>
+    <t>MED_LR_TC_134</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to view Doctor sample collection</t>
+  </si>
+  <si>
+    <t>Enter patient ID&gt;&gt;Click on Search Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter patient Id.and should be list out the doctor sample collection </t>
+  </si>
+  <si>
+    <t>MED_LR_TC_135</t>
+  </si>
+  <si>
+    <t>Verify whether Searching Sample delivery marking</t>
+  </si>
+  <si>
+    <t>Click on MENU&gt;&gt;Transaction&gt;&gt;Doctor Sample collection</t>
+  </si>
+  <si>
+    <t>Select the date from date picker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on  Search button </t>
+  </si>
+  <si>
+    <t>Delivery marking list should be listed</t>
+  </si>
+  <si>
+    <t>Unable view attached file</t>
+  </si>
+  <si>
+    <t>MED_LR_TC_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is bale to deliver the sample </t>
+  </si>
+  <si>
+    <t>Repeating the TC MED_LR_TC_136</t>
+  </si>
+  <si>
+    <t>Select one check box</t>
+  </si>
+  <si>
+    <t>User should be able to select the check boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Deliver sample </t>
+  </si>
+  <si>
+    <t>Selected patient should be moved to delivered samples</t>
+  </si>
+  <si>
+    <t>MED_LR_TC_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether Procedure group wise </t>
+  </si>
+  <si>
+    <t>Click on MENU&gt;&gt;Utilities&gt;&gt;Procedure group wise user settings</t>
+  </si>
+  <si>
+    <t>Procedure group wise user settings page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the User group </t>
+  </si>
+  <si>
+    <t>User should be able to select the user group drop down</t>
+  </si>
+  <si>
+    <t>User Group: Nurse</t>
+  </si>
+  <si>
+    <t>Select any check box</t>
+  </si>
+  <si>
+    <t>Data saved successfully mesaage pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_LR_TC_138</t>
+  </si>
+  <si>
+    <t>Verify whether Procedure Interpretation</t>
+  </si>
+  <si>
+    <t>Click on Menu&gt;&gt;Utilities&gt;&gt;Procedure Interpretation</t>
+  </si>
+  <si>
+    <t>Procedure Interpretation page should be displayed</t>
+  </si>
+  <si>
+    <t>Select procedure and enter Interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter interpretation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on save </t>
+  </si>
+  <si>
+    <t>Data saved pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_LR_TC_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Menu&gt;&gt;Query&gt;&gt;Test Result Search </t>
+  </si>
+  <si>
+    <t>Test Result Search page should be displayed</t>
+  </si>
+  <si>
+    <t>Enter patient #</t>
+  </si>
+  <si>
+    <t>User should be able to enter patient #</t>
+  </si>
+  <si>
+    <t>Patient#:NH00000917</t>
+  </si>
+  <si>
+    <t>Verify whether user is able search to  Test Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test result list should be listed </t>
+  </si>
+  <si>
+    <t>MED_LR_TC_140</t>
+  </si>
+  <si>
+    <t>Verify whether user is able search to  Test Result by Bill#</t>
+  </si>
+  <si>
+    <t>Enter Bill #</t>
+  </si>
+  <si>
+    <t>User should be able to enter Bill #</t>
+  </si>
+  <si>
+    <t>Bill#:000523</t>
   </si>
 </sst>
 </file>
@@ -3650,11 +3851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1210"/>
+  <dimension ref="A1:S1264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J533" sqref="J533"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1264" sqref="K1264:L1264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,14 +3955,14 @@
       </c>
       <c r="P2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="14">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -3791,14 +3992,14 @@
       </c>
       <c r="P3" s="12">
         <f>COUNTA(L:L)-1</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="14">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -22525,16 +22726,818 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1212" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1212" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="B1212" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1212" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1212" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="F1212" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1212" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E1213" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1213" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1213" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1213" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1214" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1214" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="G1214" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="H1214" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1215" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1215" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1215" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="H1215" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1216" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1216" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="G1216" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="H1216" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1216" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1216" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1218" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="B1218" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1218" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1218" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="F1218" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1218" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E1219" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1219" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1219" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1219" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1220" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1220" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="G1220" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="H1220" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1221" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1221" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1221" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="H1221" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1222" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1222" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="G1222" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="H1222" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1222" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1222" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1224" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1224" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1224" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1224" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1224" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1224" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E1225" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1225" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1225" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1225" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1226" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1226" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="G1226" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="H1226" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1227" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1227" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1227" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="H1227" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1228" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1228" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="G1228" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="H1228" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1229" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1229" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="G1229" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="H1229" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1230" s="7">
+        <v>6</v>
+      </c>
+      <c r="F1230" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="G1230" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="H1230" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="K1230" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1230" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1232" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1232" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1232" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1232" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="E1232" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1232" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1232" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1232" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1232" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1233" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1233" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="G1233" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="H1233" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1234" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1234" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="G1234" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H1234" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1234" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1234" s="33" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1236" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1236" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1236" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1236" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="E1236" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1236" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1236" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1236" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1237" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1237" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="G1237" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1238" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1238" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="G1238" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="H1238" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1239" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1239" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="G1239" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="H1239" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1239" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1239" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1240" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1241" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1241" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1241" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1241" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="F1241" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="H1241" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1242" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1242" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="G1242" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1243" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1243" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="G1243" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="H1243" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1243" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1243" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1244" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1245" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1245" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1245" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1245" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="E1245" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1245" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1245" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1245" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1245" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1246" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1246" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="G1246" s="7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1247" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1247" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="G1247" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="H1247" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1247" s="7" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1248" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1248" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="G1248" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1248" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1249" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1249" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1249" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="H1249" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1249" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1249" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1250" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1251" s="19" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1251" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1251" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1251" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="E1251" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1251" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1251" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1251" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1251" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1252" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1252" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="G1252" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="H1252" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1253" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1253" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1253" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="H1253" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1254" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1254" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1254" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="H1254" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1254" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1254" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1256" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1256" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1256" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1256" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="E1256" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1256" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1256" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1256" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1256" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1257" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1257" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="G1257" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="H1257" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1258" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1258" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="G1258" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="H1258" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1258" s="7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1259" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1259" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="G1259" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="H1259" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1259" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1259" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1261" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1261" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1261" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1261" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="E1261" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1261" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1261" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1261" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1261" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1262" s="7">
+        <v>2</v>
+      </c>
+      <c r="F1262" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="G1262" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="H1262" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1263" s="7">
+        <v>3</v>
+      </c>
+      <c r="F1263" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="G1263" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="H1263" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1263" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1264" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1264" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="G1264" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="H1264" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1264" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1264" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1061:C1062 C1075:C1076 C1082:C1083 C1090:C1091 C1099:C1100 C1109:C1110 C1119:C1120 C1132:C1133 C1139:C1140 C1147:C1148 C1156:C1157 C1163:C1164 C1170:C1171 C1180:C1181 C1187:C1188 C1195:C1196 C1205:C1206 C700:C707 K502 C659:C664 C668:C673 C679:C684 C690:C697 C710:C711 C716:C717 C722:C723 C728:C729 C734:C735 C740:C741 C746:C747 C752:C753 C759:C760 C766:C767 C775:C776 C784:C785 C793:C794 C802:C803 C813:C814 C824:C825 C835:C836 C842:C843 C851:C852 C860:C861 C869:C870 C878:C879 C887:C888 C897:C898 C904:C905 C911:C912 C918:C919 C927:C928 C936:C937 C945:C946 C954:C955 C963:C964 C972:C973 C981:C982 C990:C991 C998:C999 C1006:C1007 C1015:C1016 C1051:C1052 C1041:C1042 C1031:C1032 C1023:C1024 C1068:C1069 K2:K24 K39:K64 C95:C109 C79:C93 C69:C77 C2:C64 K26:K37 K69:K78 K80:K112 K114:K126 J345:J352 K128:K159 K161:K344 K353:K480 K482:K486 K493 K513 K520 K526 K535 K543 K714 K720 K726 K732 K738 K744 K750 K757 K764 K773 K782 K791 K800 K811 K822 K833 K839 K842 K545 K902 K909 K916 K925 K932 K941 K952 K961 K552 K560 K568 K576 K583 C111:C655 K589 K601 K611 K620 K629 K638 K647 K657 K666 K677 K688 K698 K708 K849 K858 K867 K876 K885 K895 K970 K979 K987 K996 K1004 K1013 K1021 K1029 K1039 K1049 K1059 K1066 K1073 K1080 K1087 K1094 K1103 K1113 K1130 K1145 K1137 K1151 K1160 K1167 K1182 K1174 K1192 K1199 K1210" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1061:C1062 C1075:C1076 C1082:C1083 C1090:C1091 C1099:C1100 C1109:C1110 C1119:C1120 C1132:C1133 C1139:C1140 C1147:C1148 C1156:C1157 C1163:C1164 C1170:C1171 C1180:C1181 C1187:C1188 C1195:C1196 C1205:C1206 C700:C707 K502 C659:C664 C668:C673 C679:C684 C690:C697 C710:C711 C716:C717 C722:C723 C728:C729 C734:C735 C740:C741 C746:C747 C752:C753 C759:C760 C766:C767 C775:C776 C784:C785 C793:C794 C802:C803 C813:C814 C824:C825 C835:C836 C842:C843 C851:C852 C860:C861 C869:C870 C878:C879 C887:C888 C897:C898 C904:C905 C911:C912 C918:C919 C927:C928 C936:C937 C945:C946 C954:C955 C963:C964 C972:C973 C981:C982 C990:C991 C998:C999 C1006:C1007 C1015:C1016 C1051:C1052 C1041:C1042 C1031:C1032 C1023:C1024 C1068:C1069 K2:K24 K39:K64 C95:C109 C79:C93 C69:C77 C2:C64 K26:K37 K69:K78 K80:K112 K114:K126 J345:J352 K128:K159 K161:K344 K353:K480 K482:K486 K493 K513 K520 K526 K535 K543 K714 K720 K726 K732 K738 K744 K750 K757 K764 K773 K782 K791 K800 K811 K822 K833 K839 K842 K545 K902 K909 K916 K925 K932 K941 K952 K961 K552 K560 K568 K576 K583 C111:C655 K589 K601 K611 K620 K629 K638 K647 K657 K666 K677 K688 K698 K708 K849 K858 K867 K876 K885 K895 K970 K979 K987 K996 K1004 K1013 K1021 K1029 K1039 K1049 K1059 K1066 K1073 K1080 K1087 K1094 K1103 K1113 K1130 K1145 K1137 K1151 K1160 K1167 K1182 K1174 K1192 K1199 K1210 C1212 C1218 C1224 K1216 K1222 C1232 C1236 K1239 K1230 C1241 K1243 C1245 K1249 C1251 K1234 K1254 C1256 K1259 C1261 K1264" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1061 B1068 B1075 B1082 B1090 B1099 B1109 B1119 B1132 B1139 B1147 B1156 B1163 B1170 B1180 B1187 B1195 B1205 B363 B366 B374 B378 B405 B400 B411 B431:B432 B422 B390 B416 B444 B470:B471 B457 B485:B486 B382 B359 B371 B512 B520 B515 B522 B533 B537 B545 B542 B554 B569:B570 B562 B584:B585 B590:B591 B599 B578 B611 B613 B622:B623 B631 B640 B650 B659 B668 B679 B690 B700 B495 B504 B528 B603 B710 B716 B722 B728 B734 B740 B746 B752 B759 B766 B775 B784 B793 B802 B813 B824 B835 B842 B851 B860 B869 B878 B887 B897 B904 B911 B918 B927 B936 B945 B954 B963 B972 B981 B990 B998 B1006 B1015 B1051 B1041 B1031 B1023 B320 B292 B271 B238 B251 B217 B199 B185 B175 B147 B129 B116 B121 B97 B69 B57 B27 B9 B155 B163:B164 B141 B134:B135 B102 B86 B74 B80:B81 B52 B47 B32 B24:B25 B14:B15 B41 B2 B192 B206:B207 B228 B261 B281:B282 B304:B305 B332 B345:B346" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1061 B1068 B1075 B1082 B1090 B1099 B1109 B1119 B1132 B1139 B1147 B1156 B1163 B1170 B1180 B1187 B1195 B1205 B363 B366 B374 B378 B405 B400 B411 B431:B432 B422 B390 B416 B444 B470:B471 B457 B485:B486 B382 B359 B371 B512 B520 B515 B522 B533 B537 B545 B542 B554 B569:B570 B562 B584:B585 B590:B591 B599 B578 B611 B613 B622:B623 B631 B640 B650 B659 B668 B679 B690 B700 B495 B504 B528 B603 B710 B716 B722 B728 B734 B740 B746 B752 B759 B766 B775 B784 B793 B802 B813 B824 B835 B842 B851 B860 B869 B878 B887 B897 B904 B911 B918 B927 B936 B945 B954 B963 B972 B981 B990 B998 B1006 B1015 B1051 B1041 B1031 B1023 B320 B292 B271 B238 B251 B217 B199 B185 B175 B147 B129 B116 B121 B97 B69 B57 B27 B9 B155 B163:B164 B141 B134:B135 B102 B86 B74 B80:B81 B52 B47 B32 B24:B25 B14:B15 B41 B2 B192 B206:B207 B228 B261 B281:B282 B304:B305 B332 B345:B346 B1212 B1218 B1224 B1232 B1236 B1241 B1245 B1251 B1256 B1261" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C708:C709 C656:C658 C665:C667 C674:C678 C685:C689 C698:C699 C712:C715 C718:C721 C724:C726 C730:C732 C736 C742 C748 C754 C761 C768 C777 C786 C795 C804 C815 C826 C837:C838 C844:C845 C853:C854 C862:C863 C871:C872 C880:C881 C889:C890" xr:uid="{00000000-0002-0000-0000-000002000000}">
